--- a/data 2025-04-04.xlsx
+++ b/data 2025-04-04.xlsx
@@ -562,10 +562,10 @@
         <v>26</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -588,10 +588,10 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -614,10 +614,10 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -640,10 +640,10 @@
         <v>28</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -666,10 +666,10 @@
         <v>29</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -692,10 +692,10 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -718,10 +718,10 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -744,10 +744,10 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -770,10 +770,10 @@
         <v>32</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -796,10 +796,10 @@
         <v>33</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -822,10 +822,10 @@
         <v>34</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -848,10 +848,10 @@
         <v>34</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -874,10 +874,10 @@
         <v>35</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -900,10 +900,10 @@
         <v>36</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -926,10 +926,10 @@
         <v>37</v>
       </c>
       <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
         <v>6</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -952,10 +952,10 @@
         <v>38</v>
       </c>
       <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
         <v>4</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -978,10 +978,10 @@
         <v>39</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
         <v>6</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1030,10 +1030,10 @@
         <v>41</v>
       </c>
       <c r="G20">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>198</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1056,7 +1056,7 @@
         <v>41</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>41</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1108,10 +1108,10 @@
         <v>26</v>
       </c>
       <c r="G23">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>166</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1134,10 +1134,10 @@
         <v>27</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1160,10 +1160,10 @@
         <v>28</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1186,10 +1186,10 @@
         <v>28</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1212,10 +1212,10 @@
         <v>29</v>
       </c>
       <c r="G27">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>272</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1238,10 +1238,10 @@
         <v>30</v>
       </c>
       <c r="G28">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H28">
-        <v>201</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1264,10 +1264,10 @@
         <v>30</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1290,10 +1290,10 @@
         <v>31</v>
       </c>
       <c r="G30">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1316,10 +1316,10 @@
         <v>32</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1342,10 +1342,10 @@
         <v>33</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1368,10 +1368,10 @@
         <v>34</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1394,10 +1394,10 @@
         <v>34</v>
       </c>
       <c r="G34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>81.09999999999999</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1420,10 +1420,10 @@
         <v>35</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>186</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1446,10 +1446,10 @@
         <v>36</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1472,10 +1472,10 @@
         <v>37</v>
       </c>
       <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
         <v>12</v>
-      </c>
-      <c r="H37">
-        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1498,10 +1498,10 @@
         <v>38</v>
       </c>
       <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
         <v>10</v>
-      </c>
-      <c r="H38">
-        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1524,10 +1524,10 @@
         <v>39</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1550,10 +1550,10 @@
         <v>42</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1576,10 +1576,10 @@
         <v>40</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1602,10 +1602,10 @@
         <v>41</v>
       </c>
       <c r="G42">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H42">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1628,10 +1628,10 @@
         <v>41</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1654,10 +1654,10 @@
         <v>41</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1680,10 +1680,10 @@
         <v>26</v>
       </c>
       <c r="G45">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1706,10 +1706,10 @@
         <v>27</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1732,10 +1732,10 @@
         <v>29</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>350</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1758,10 +1758,10 @@
         <v>30</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H48">
-        <v>192</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1784,10 +1784,10 @@
         <v>30</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1810,10 +1810,10 @@
         <v>31</v>
       </c>
       <c r="G50">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H50">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1836,10 +1836,10 @@
         <v>32</v>
       </c>
       <c r="G51">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1862,10 +1862,10 @@
         <v>33</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1888,10 +1888,10 @@
         <v>34</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1914,10 +1914,10 @@
         <v>34</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H54">
-        <v>64.40000000000001</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1940,10 +1940,10 @@
         <v>35</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H55">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1966,10 +1966,10 @@
         <v>36</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1992,10 +1992,10 @@
         <v>37</v>
       </c>
       <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
         <v>20</v>
-      </c>
-      <c r="H57">
-        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2018,10 +2018,10 @@
         <v>38</v>
       </c>
       <c r="G58">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H58">
-        <v>59</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2044,10 +2044,10 @@
         <v>43</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2070,10 +2070,10 @@
         <v>39</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H60">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2096,10 +2096,10 @@
         <v>42</v>
       </c>
       <c r="G61">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H61">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2122,10 +2122,10 @@
         <v>41</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2148,10 +2148,10 @@
         <v>41</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H63">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2174,10 +2174,10 @@
         <v>41</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2200,10 +2200,10 @@
         <v>41</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2226,10 +2226,10 @@
         <v>26</v>
       </c>
       <c r="G66">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H66">
-        <v>246</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2252,10 +2252,10 @@
         <v>27</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2278,10 +2278,10 @@
         <v>28</v>
       </c>
       <c r="G68">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H68">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2304,10 +2304,10 @@
         <v>28</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2330,10 +2330,10 @@
         <v>29</v>
       </c>
       <c r="G70">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>508</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2356,10 +2356,10 @@
         <v>30</v>
       </c>
       <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>2</v>
-      </c>
-      <c r="H71">
-        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2382,10 +2382,10 @@
         <v>30</v>
       </c>
       <c r="G72">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>267</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2408,10 +2408,10 @@
         <v>30</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H73">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2434,10 +2434,10 @@
         <v>31</v>
       </c>
       <c r="G74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H74">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2460,10 +2460,10 @@
         <v>32</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H75">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2486,10 +2486,10 @@
         <v>33</v>
       </c>
       <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
         <v>2</v>
-      </c>
-      <c r="H76">
-        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2512,10 +2512,10 @@
         <v>34</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2538,10 +2538,10 @@
         <v>34</v>
       </c>
       <c r="G78">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H78">
-        <v>81.09999999999999</v>
+        <v>37.55</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2564,10 +2564,10 @@
         <v>35</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H79">
-        <v>164</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2590,10 +2590,10 @@
         <v>36</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2616,10 +2616,10 @@
         <v>44</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2642,10 +2642,10 @@
         <v>37</v>
       </c>
       <c r="G82">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H82">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2668,10 +2668,10 @@
         <v>38</v>
       </c>
       <c r="G83">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H83">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2694,10 +2694,10 @@
         <v>43</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2720,10 +2720,10 @@
         <v>39</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H85">
-        <v>23</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2746,10 +2746,10 @@
         <v>42</v>
       </c>
       <c r="G86">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H86">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2772,10 +2772,10 @@
         <v>41</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2798,10 +2798,10 @@
         <v>41</v>
       </c>
       <c r="G88">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H88">
-        <v>190</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2824,10 +2824,10 @@
         <v>41</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2850,10 +2850,10 @@
         <v>41</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2876,10 +2876,10 @@
         <v>26</v>
       </c>
       <c r="G91">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H91">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2902,10 +2902,10 @@
         <v>27</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H92">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2928,10 +2928,10 @@
         <v>28</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2954,10 +2954,10 @@
         <v>29</v>
       </c>
       <c r="G94">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>430</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2980,10 +2980,10 @@
         <v>30</v>
       </c>
       <c r="G95">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H95">
-        <v>210</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3006,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="G96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3032,10 +3032,10 @@
         <v>31</v>
       </c>
       <c r="G97">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H97">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3058,10 +3058,10 @@
         <v>32</v>
       </c>
       <c r="G98">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H98">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3084,10 +3084,10 @@
         <v>33</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3110,10 +3110,10 @@
         <v>34</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3136,10 +3136,10 @@
         <v>34</v>
       </c>
       <c r="G101">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H101">
-        <v>81.5</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3162,10 +3162,10 @@
         <v>35</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3188,10 +3188,10 @@
         <v>36</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3214,10 +3214,10 @@
         <v>37</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3240,10 +3240,10 @@
         <v>38</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3266,10 +3266,10 @@
         <v>39</v>
       </c>
       <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
         <v>4</v>
-      </c>
-      <c r="H106">
-        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3292,10 +3292,10 @@
         <v>42</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3318,10 +3318,10 @@
         <v>41</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3344,10 +3344,10 @@
         <v>41</v>
       </c>
       <c r="G109">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H109">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3370,10 +3370,10 @@
         <v>41</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3396,10 +3396,10 @@
         <v>41</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3422,10 +3422,10 @@
         <v>26</v>
       </c>
       <c r="G112">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H112">
-        <v>184</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3448,10 +3448,10 @@
         <v>27</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H113">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3474,10 +3474,10 @@
         <v>28</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3500,10 +3500,10 @@
         <v>29</v>
       </c>
       <c r="G115">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>360</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3526,10 +3526,10 @@
         <v>30</v>
       </c>
       <c r="G116">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H116">
-        <v>171</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3552,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="G117">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H117">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3578,10 +3578,10 @@
         <v>31</v>
       </c>
       <c r="G118">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H118">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3604,10 +3604,10 @@
         <v>32</v>
       </c>
       <c r="G119">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H119">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3630,10 +3630,10 @@
         <v>33</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3656,10 +3656,10 @@
         <v>34</v>
       </c>
       <c r="G121">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H121">
-        <v>71.09999999999999</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3682,10 +3682,10 @@
         <v>35</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3708,10 +3708,10 @@
         <v>36</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3734,10 +3734,10 @@
         <v>37</v>
       </c>
       <c r="G124">
+        <v>7</v>
+      </c>
+      <c r="H124">
         <v>14</v>
-      </c>
-      <c r="H124">
-        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3760,10 +3760,10 @@
         <v>38</v>
       </c>
       <c r="G125">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H125">
-        <v>49</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3786,10 +3786,10 @@
         <v>43</v>
       </c>
       <c r="G126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3812,10 +3812,10 @@
         <v>39</v>
       </c>
       <c r="G127">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3838,10 +3838,10 @@
         <v>42</v>
       </c>
       <c r="G128">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H128">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3864,10 +3864,10 @@
         <v>41</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3890,10 +3890,10 @@
         <v>41</v>
       </c>
       <c r="G130">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H130">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3916,10 +3916,10 @@
         <v>41</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3942,10 +3942,10 @@
         <v>41</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3968,10 +3968,10 @@
         <v>26</v>
       </c>
       <c r="G133">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H133">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3994,10 +3994,10 @@
         <v>27</v>
       </c>
       <c r="G134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4020,10 +4020,10 @@
         <v>28</v>
       </c>
       <c r="G135">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H135">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4046,10 +4046,10 @@
         <v>28</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4072,10 +4072,10 @@
         <v>29</v>
       </c>
       <c r="G137">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H137">
-        <v>174.3</v>
+        <v>96.15000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4098,10 +4098,10 @@
         <v>30</v>
       </c>
       <c r="G138">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H138">
-        <v>167</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4124,10 +4124,10 @@
         <v>30</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H139">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4150,10 +4150,10 @@
         <v>31</v>
       </c>
       <c r="G140">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H140">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4176,10 +4176,10 @@
         <v>32</v>
       </c>
       <c r="G141">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H141">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4202,10 +4202,10 @@
         <v>33</v>
       </c>
       <c r="G142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4228,10 +4228,10 @@
         <v>34</v>
       </c>
       <c r="G143">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H143">
-        <v>77.09999999999999</v>
+        <v>33.55</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4254,10 +4254,10 @@
         <v>35</v>
       </c>
       <c r="G144">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H144">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4280,10 +4280,10 @@
         <v>36</v>
       </c>
       <c r="G145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4306,10 +4306,10 @@
         <v>44</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4332,10 +4332,10 @@
         <v>37</v>
       </c>
       <c r="G147">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H147">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4358,10 +4358,10 @@
         <v>38</v>
       </c>
       <c r="G148">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H148">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4384,10 +4384,10 @@
         <v>43</v>
       </c>
       <c r="G149">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H149">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4410,10 +4410,10 @@
         <v>39</v>
       </c>
       <c r="G150">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H150">
-        <v>43</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4436,10 +4436,10 @@
         <v>42</v>
       </c>
       <c r="G151">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H151">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4462,10 +4462,10 @@
         <v>40</v>
       </c>
       <c r="G152">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H152">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4488,10 +4488,10 @@
         <v>41</v>
       </c>
       <c r="G153">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H153">
-        <v>156</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4514,10 +4514,10 @@
         <v>41</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4540,10 +4540,10 @@
         <v>29</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4566,10 +4566,10 @@
         <v>31</v>
       </c>
       <c r="G156">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H156">
-        <v>206</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4592,10 +4592,10 @@
         <v>32</v>
       </c>
       <c r="G157">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H157">
-        <v>246</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4618,10 +4618,10 @@
         <v>41</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4644,10 +4644,10 @@
         <v>29</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4670,10 +4670,10 @@
         <v>31</v>
       </c>
       <c r="G160">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H160">
-        <v>206</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4696,10 +4696,10 @@
         <v>32</v>
       </c>
       <c r="G161">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H161">
-        <v>246</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4722,10 +4722,10 @@
         <v>41</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4748,10 +4748,10 @@
         <v>29</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4774,10 +4774,10 @@
         <v>31</v>
       </c>
       <c r="G164">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H164">
-        <v>236</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4800,10 +4800,10 @@
         <v>32</v>
       </c>
       <c r="G165">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H165">
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4826,10 +4826,10 @@
         <v>41</v>
       </c>
       <c r="G166">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H166">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4852,10 +4852,10 @@
         <v>41</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4878,10 +4878,10 @@
         <v>41</v>
       </c>
       <c r="G168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4904,10 +4904,10 @@
         <v>29</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4930,10 +4930,10 @@
         <v>31</v>
       </c>
       <c r="G170">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H170">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4956,10 +4956,10 @@
         <v>32</v>
       </c>
       <c r="G171">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H171">
-        <v>198</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4982,10 +4982,10 @@
         <v>41</v>
       </c>
       <c r="G172">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H172">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5008,7 +5008,7 @@
         <v>41</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>24</v>
@@ -5034,10 +5034,10 @@
         <v>29</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5060,10 +5060,10 @@
         <v>31</v>
       </c>
       <c r="G175">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H175">
-        <v>296</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5086,10 +5086,10 @@
         <v>32</v>
       </c>
       <c r="G176">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H176">
-        <v>142</v>
+        <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5112,10 +5112,10 @@
         <v>41</v>
       </c>
       <c r="G177">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H177">
-        <v>392</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5138,10 +5138,10 @@
         <v>41</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5164,7 +5164,7 @@
         <v>41</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>12</v>
@@ -5190,7 +5190,7 @@
         <v>41</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>24</v>

--- a/data 2025-04-04.xlsx
+++ b/data 2025-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="49">
   <si>
     <t>Ngày khai trương</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Tên siêu thị</t>
+  </si>
+  <si>
+    <t>Miền</t>
   </si>
   <si>
     <t>Ngành hàng</t>
@@ -80,6 +83,15 @@
   </si>
   <si>
     <t>14833-BHX_BRV-CDU - Hùng Vương (TT Ngãi Giao)</t>
+  </si>
+  <si>
+    <t>Miền Tây</t>
+  </si>
+  <si>
+    <t>Cao Nguyên</t>
+  </si>
+  <si>
+    <t>Miền Trung</t>
   </si>
   <si>
     <t>Rau Củ Các Loại</t>
@@ -510,13 +522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +553,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>45752</v>
       </c>
@@ -553,22 +568,25 @@
         <v>14589</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>45752</v>
       </c>
@@ -579,22 +597,25 @@
         <v>14589</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>45752</v>
       </c>
@@ -605,22 +626,25 @@
         <v>14589</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>45752</v>
       </c>
@@ -631,22 +655,25 @@
         <v>14589</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>45752</v>
       </c>
@@ -657,22 +684,25 @@
         <v>14589</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
         <v>32</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>45752</v>
       </c>
@@ -683,22 +713,25 @@
         <v>14589</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>28</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>45752</v>
       </c>
@@ -709,22 +742,25 @@
         <v>14589</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>45752</v>
       </c>
@@ -735,22 +771,25 @@
         <v>14589</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>45752</v>
       </c>
@@ -761,22 +800,25 @@
         <v>14589</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>45752</v>
       </c>
@@ -787,22 +829,25 @@
         <v>14589</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>45752</v>
       </c>
@@ -813,22 +858,25 @@
         <v>14589</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>45752</v>
       </c>
@@ -839,22 +887,25 @@
         <v>14589</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
         <v>11</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>45752</v>
       </c>
@@ -865,22 +916,25 @@
         <v>14589</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>45752</v>
       </c>
@@ -891,22 +945,25 @@
         <v>14589</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>45752</v>
       </c>
@@ -917,22 +974,25 @@
         <v>14589</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>45752</v>
       </c>
@@ -943,22 +1003,25 @@
         <v>14589</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>45752</v>
       </c>
@@ -969,22 +1032,25 @@
         <v>14589</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>45752</v>
       </c>
@@ -995,22 +1061,25 @@
         <v>14589</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>17.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>45752</v>
       </c>
@@ -1021,22 +1090,25 @@
         <v>14589</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20">
         <v>18</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>45752</v>
       </c>
@@ -1047,22 +1119,25 @@
         <v>14589</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>45752</v>
       </c>
@@ -1073,22 +1148,25 @@
         <v>14589</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>45752</v>
       </c>
@@ -1099,22 +1177,22 @@
         <v>14689</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23">
         <v>19</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>45752</v>
       </c>
@@ -1125,22 +1203,22 @@
         <v>14689</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
       </c>
       <c r="H24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>45752</v>
       </c>
@@ -1151,22 +1229,22 @@
         <v>14689</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25">
         <v>6</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>45752</v>
       </c>
@@ -1177,22 +1255,22 @@
         <v>14689</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>45752</v>
       </c>
@@ -1203,22 +1281,22 @@
         <v>14689</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27">
         <v>34</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>45752</v>
       </c>
@@ -1229,22 +1307,22 @@
         <v>14689</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28">
         <v>28</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>100.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>45752</v>
       </c>
@@ -1255,22 +1333,22 @@
         <v>14689</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
         <v>6</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>45752</v>
       </c>
@@ -1281,22 +1359,22 @@
         <v>14689</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
         <v>11</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>45752</v>
       </c>
@@ -1307,22 +1385,22 @@
         <v>14689</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
         <v>8</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>45752</v>
       </c>
@@ -1333,22 +1411,22 @@
         <v>14689</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
         <v>4</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>45752</v>
       </c>
@@ -1359,22 +1437,22 @@
         <v>14689</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>45752</v>
       </c>
@@ -1385,22 +1463,22 @@
         <v>14689</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34">
         <v>16</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>40.55</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>45752</v>
       </c>
@@ -1411,22 +1489,22 @@
         <v>14689</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>45752</v>
       </c>
@@ -1437,22 +1515,22 @@
         <v>14689</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>45752</v>
       </c>
@@ -1463,22 +1541,22 @@
         <v>14689</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37">
         <v>6</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>45752</v>
       </c>
@@ -1489,22 +1567,22 @@
         <v>14689</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>45752</v>
       </c>
@@ -1515,22 +1593,22 @@
         <v>14689</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39">
         <v>5</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>8.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>45752</v>
       </c>
@@ -1541,22 +1619,22 @@
         <v>14689</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
       </c>
       <c r="H40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>45752</v>
       </c>
@@ -1567,22 +1645,22 @@
         <v>14689</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41">
         <v>5</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>45752</v>
       </c>
@@ -1593,22 +1671,22 @@
         <v>14689</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42">
         <v>17</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>45752</v>
       </c>
@@ -1619,22 +1697,22 @@
         <v>14689</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>45752</v>
       </c>
@@ -1645,22 +1723,22 @@
         <v>14689</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
       </c>
       <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>45752</v>
       </c>
@@ -1671,22 +1749,22 @@
         <v>14727</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45">
         <v>22</v>
       </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45">
-        <v>22</v>
-      </c>
-      <c r="H45">
+      <c r="I45">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>45752</v>
       </c>
@@ -1697,22 +1775,22 @@
         <v>14727</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>45752</v>
       </c>
@@ -1723,22 +1801,22 @@
         <v>14727</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47">
         <v>30</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>45752</v>
       </c>
@@ -1749,22 +1827,22 @@
         <v>14727</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48">
         <v>25</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>45752</v>
       </c>
@@ -1775,22 +1853,22 @@
         <v>14727</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>45752</v>
       </c>
@@ -1801,22 +1879,22 @@
         <v>14727</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50">
         <v>11</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>45752</v>
       </c>
@@ -1827,22 +1905,22 @@
         <v>14727</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51">
         <v>8</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>45752</v>
       </c>
@@ -1853,22 +1931,22 @@
         <v>14727</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52">
         <v>3</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>45752</v>
       </c>
@@ -1879,22 +1957,22 @@
         <v>14727</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>45752</v>
       </c>
@@ -1905,22 +1983,22 @@
         <v>14727</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54">
         <v>15</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>45752</v>
       </c>
@@ -1931,22 +2009,22 @@
         <v>14727</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55">
         <v>5</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>45752</v>
       </c>
@@ -1957,22 +2035,22 @@
         <v>14727</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>45752</v>
       </c>
@@ -1983,22 +2061,22 @@
         <v>14727</v>
       </c>
       <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="E57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
+      <c r="I57">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>45752</v>
       </c>
@@ -2009,22 +2087,22 @@
         <v>14727</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58">
         <v>13</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>23.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>45752</v>
       </c>
@@ -2035,22 +2113,22 @@
         <v>14727</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59">
         <v>3</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>45752</v>
       </c>
@@ -2061,22 +2139,22 @@
         <v>14727</v>
       </c>
       <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>45752</v>
       </c>
@@ -2087,22 +2165,22 @@
         <v>14727</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61">
         <v>7</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>45752</v>
       </c>
@@ -2113,22 +2191,22 @@
         <v>14727</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>45752</v>
       </c>
@@ -2139,22 +2217,22 @@
         <v>14727</v>
       </c>
       <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63">
         <v>10</v>
       </c>
-      <c r="E63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="H63">
+      <c r="I63">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>45752</v>
       </c>
@@ -2165,22 +2243,22 @@
         <v>14727</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>45752</v>
       </c>
@@ -2191,22 +2269,22 @@
         <v>14727</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>45752</v>
       </c>
@@ -2217,22 +2295,22 @@
         <v>14786</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
         <v>26</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66">
         <v>24</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>45752</v>
       </c>
@@ -2243,22 +2321,22 @@
         <v>14786</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67">
         <v>4</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>45752</v>
       </c>
@@ -2269,22 +2347,22 @@
         <v>14786</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68">
         <v>6</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>45752</v>
       </c>
@@ -2295,22 +2373,22 @@
         <v>14786</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>0.4</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>45752</v>
       </c>
@@ -2321,22 +2399,22 @@
         <v>14786</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70">
         <v>38</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>45752</v>
       </c>
@@ -2347,22 +2425,22 @@
         <v>14786</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>45752</v>
       </c>
@@ -2373,22 +2451,22 @@
         <v>14786</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72">
         <v>30</v>
       </c>
-      <c r="G72">
-        <v>30</v>
-      </c>
-      <c r="H72">
+      <c r="I72">
         <v>133.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>45752</v>
       </c>
@@ -2399,22 +2477,22 @@
         <v>14786</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73">
         <v>5</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>45752</v>
       </c>
@@ -2425,22 +2503,22 @@
         <v>14786</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74">
         <v>10</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>45752</v>
       </c>
@@ -2451,22 +2529,22 @@
         <v>14786</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75">
         <v>8</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>45752</v>
       </c>
@@ -2477,22 +2555,22 @@
         <v>14786</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>45752</v>
       </c>
@@ -2503,22 +2581,22 @@
         <v>14786</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>45752</v>
       </c>
@@ -2529,22 +2607,22 @@
         <v>14786</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78">
         <v>16</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>37.55</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>45752</v>
       </c>
@@ -2555,22 +2633,22 @@
         <v>14786</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79">
         <v>5</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>45752</v>
       </c>
@@ -2581,22 +2659,22 @@
         <v>14786</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>40</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>45752</v>
       </c>
@@ -2607,22 +2685,22 @@
         <v>14786</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>48</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>45752</v>
       </c>
@@ -2633,22 +2711,22 @@
         <v>14786</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82">
         <v>20</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>45752</v>
       </c>
@@ -2659,22 +2737,22 @@
         <v>14786</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83">
         <v>17</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>45752</v>
       </c>
@@ -2685,22 +2763,22 @@
         <v>14786</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84">
         <v>3</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>45752</v>
       </c>
@@ -2711,22 +2789,22 @@
         <v>14786</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85">
         <v>7</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>11.5</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>45752</v>
       </c>
@@ -2737,22 +2815,22 @@
         <v>14786</v>
       </c>
       <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86">
         <v>11</v>
       </c>
-      <c r="E86" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" t="s">
-        <v>42</v>
-      </c>
-      <c r="G86">
-        <v>11</v>
-      </c>
-      <c r="H86">
+      <c r="I86">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>45752</v>
       </c>
@@ -2763,22 +2841,22 @@
         <v>14786</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>45752</v>
       </c>
@@ -2789,22 +2867,22 @@
         <v>14786</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88">
         <v>9</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>45752</v>
       </c>
@@ -2815,22 +2893,22 @@
         <v>14786</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>45752</v>
       </c>
@@ -2841,22 +2919,22 @@
         <v>14786</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>45752</v>
       </c>
@@ -2867,22 +2945,22 @@
         <v>14815</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
         <v>26</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91">
         <v>25</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>45752</v>
       </c>
@@ -2893,22 +2971,22 @@
         <v>14815</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92">
         <v>4</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>45752</v>
       </c>
@@ -2919,22 +2997,22 @@
         <v>14815</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>0.6</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>45752</v>
       </c>
@@ -2945,22 +3023,22 @@
         <v>14815</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94">
         <v>36</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>45752</v>
       </c>
@@ -2971,22 +3049,22 @@
         <v>14815</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95">
-        <v>26</v>
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
       </c>
       <c r="H95">
+        <v>26</v>
+      </c>
+      <c r="I95">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>45752</v>
       </c>
@@ -2997,22 +3075,22 @@
         <v>14815</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
         <v>22</v>
       </c>
-      <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96">
-        <v>6</v>
-      </c>
-      <c r="H96">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>45752</v>
       </c>
@@ -3023,22 +3101,22 @@
         <v>14815</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97">
         <v>9</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>45752</v>
       </c>
@@ -3049,22 +3127,22 @@
         <v>14815</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98">
         <v>8</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>45752</v>
       </c>
@@ -3075,22 +3153,22 @@
         <v>14815</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
-      </c>
-      <c r="G99">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99">
         <v>4</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>45752</v>
       </c>
@@ -3101,22 +3179,22 @@
         <v>14815</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>38</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
         <v>45752</v>
       </c>
@@ -3127,22 +3205,22 @@
         <v>14815</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101">
         <v>17</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>31.75</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
         <v>45752</v>
       </c>
@@ -3153,22 +3231,22 @@
         <v>14815</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102">
         <v>5</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
         <v>45752</v>
       </c>
@@ -3179,22 +3257,22 @@
         <v>14815</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
-      </c>
-      <c r="G103">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="G103" t="s">
+        <v>40</v>
       </c>
       <c r="H103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2">
         <v>45752</v>
       </c>
@@ -3205,22 +3283,22 @@
         <v>14815</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104">
         <v>3</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="A105" s="2">
         <v>45752</v>
       </c>
@@ -3231,22 +3309,22 @@
         <v>14815</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
-      </c>
-      <c r="G105">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105">
         <v>3</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:9">
       <c r="A106" s="2">
         <v>45752</v>
       </c>
@@ -3257,22 +3335,22 @@
         <v>14815</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106">
         <v>2</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107" s="2">
         <v>45752</v>
       </c>
@@ -3283,22 +3361,22 @@
         <v>14815</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
-      </c>
-      <c r="G107">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107">
         <v>3</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:9">
       <c r="A108" s="2">
         <v>45752</v>
       </c>
@@ -3309,22 +3387,22 @@
         <v>14815</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
       </c>
       <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:9">
       <c r="A109" s="2">
         <v>45752</v>
       </c>
@@ -3335,22 +3413,22 @@
         <v>14815</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109">
         <v>9</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:9">
       <c r="A110" s="2">
         <v>45752</v>
       </c>
@@ -3361,22 +3439,22 @@
         <v>14815</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
       </c>
       <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:9">
       <c r="A111" s="2">
         <v>45752</v>
       </c>
@@ -3387,22 +3465,22 @@
         <v>14815</v>
       </c>
       <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>12</v>
       </c>
-      <c r="E111" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" t="s">
-        <v>41</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="2">
         <v>45753</v>
       </c>
@@ -3413,22 +3491,22 @@
         <v>14735</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s">
         <v>26</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112">
         <v>23</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:9">
       <c r="A113" s="2">
         <v>45753</v>
       </c>
@@ -3439,22 +3517,22 @@
         <v>14735</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113">
         <v>4</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:9">
       <c r="A114" s="2">
         <v>45753</v>
       </c>
@@ -3465,22 +3543,22 @@
         <v>14735</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>32</v>
       </c>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:9">
       <c r="A115" s="2">
         <v>45753</v>
       </c>
@@ -3491,22 +3569,22 @@
         <v>14735</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115">
         <v>31</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:9">
       <c r="A116" s="2">
         <v>45753</v>
       </c>
@@ -3517,22 +3595,22 @@
         <v>14735</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116">
         <v>23</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>85.5</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:9">
       <c r="A117" s="2">
         <v>45753</v>
       </c>
@@ -3543,22 +3621,22 @@
         <v>14735</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H117">
         <v>7</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:9">
       <c r="A118" s="2">
         <v>45753</v>
       </c>
@@ -3569,22 +3647,22 @@
         <v>14735</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118">
         <v>10</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:9">
       <c r="A119" s="2">
         <v>45753</v>
       </c>
@@ -3595,22 +3673,22 @@
         <v>14735</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119">
         <v>8</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:9">
       <c r="A120" s="2">
         <v>45753</v>
       </c>
@@ -3621,22 +3699,22 @@
         <v>14735</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
       </c>
       <c r="H120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="2">
         <v>45753</v>
       </c>
@@ -3647,22 +3725,22 @@
         <v>14735</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121">
         <v>16</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>46.35</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:9">
       <c r="A122" s="2">
         <v>45753</v>
       </c>
@@ -3673,22 +3751,22 @@
         <v>14735</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
-      </c>
-      <c r="G122">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>39</v>
+      </c>
+      <c r="H122">
         <v>5</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:9">
       <c r="A123" s="2">
         <v>45753</v>
       </c>
@@ -3699,22 +3777,22 @@
         <v>14735</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
-      </c>
-      <c r="G123">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="G123" t="s">
+        <v>40</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="2">
         <v>45753</v>
       </c>
@@ -3725,22 +3803,22 @@
         <v>14735</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
-      </c>
-      <c r="G124">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>41</v>
+      </c>
+      <c r="H124">
         <v>7</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:9">
       <c r="A125" s="2">
         <v>45753</v>
       </c>
@@ -3751,22 +3829,22 @@
         <v>14735</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125">
         <v>12</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>22.5</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:9">
       <c r="A126" s="2">
         <v>45753</v>
       </c>
@@ -3777,22 +3855,22 @@
         <v>14735</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G126">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126">
         <v>4</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:9">
       <c r="A127" s="2">
         <v>45753</v>
       </c>
@@ -3803,22 +3881,22 @@
         <v>14735</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
-      </c>
-      <c r="G127">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>43</v>
+      </c>
+      <c r="H127">
         <v>5</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:9">
       <c r="A128" s="2">
         <v>45753</v>
       </c>
@@ -3829,22 +3907,22 @@
         <v>14735</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128">
         <v>11</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:9">
       <c r="A129" s="2">
         <v>45753</v>
       </c>
@@ -3855,22 +3933,22 @@
         <v>14735</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:9">
       <c r="A130" s="2">
         <v>45753</v>
       </c>
@@ -3881,22 +3959,22 @@
         <v>14735</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
-      </c>
-      <c r="G130">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130">
         <v>9</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:9">
       <c r="A131" s="2">
         <v>45753</v>
       </c>
@@ -3907,22 +3985,22 @@
         <v>14735</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G131" t="s">
+        <v>45</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:9">
       <c r="A132" s="2">
         <v>45753</v>
       </c>
@@ -3933,22 +4011,22 @@
         <v>14735</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G132" t="s">
+        <v>45</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:9">
       <c r="A133" s="2">
         <v>45753</v>
       </c>
@@ -3959,22 +4037,25 @@
         <v>14805</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F133" t="s">
         <v>26</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133">
         <v>18</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:9">
       <c r="A134" s="2">
         <v>45753</v>
       </c>
@@ -3985,22 +4066,25 @@
         <v>14805</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134">
         <v>4</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:9">
       <c r="A135" s="2">
         <v>45753</v>
       </c>
@@ -4011,22 +4095,25 @@
         <v>14805</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135">
         <v>6</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:9">
       <c r="A136" s="2">
         <v>45753</v>
       </c>
@@ -4037,22 +4124,25 @@
         <v>14805</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>0.4</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:9">
       <c r="A137" s="2">
         <v>45753</v>
       </c>
@@ -4063,22 +4153,25 @@
         <v>14805</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137">
         <v>27</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>96.15000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:9">
       <c r="A138" s="2">
         <v>45753</v>
       </c>
@@ -4089,22 +4182,25 @@
         <v>14805</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138">
         <v>22</v>
       </c>
-      <c r="F138" t="s">
-        <v>30</v>
-      </c>
-      <c r="G138">
-        <v>22</v>
-      </c>
-      <c r="H138">
+      <c r="I138">
         <v>83.5</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:9">
       <c r="A139" s="2">
         <v>45753</v>
       </c>
@@ -4115,22 +4211,25 @@
         <v>14805</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
-      </c>
-      <c r="G139">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139">
         <v>5</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:9">
       <c r="A140" s="2">
         <v>45753</v>
       </c>
@@ -4141,22 +4240,25 @@
         <v>14805</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
-      </c>
-      <c r="G140">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="H140">
         <v>12</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:9">
       <c r="A141" s="2">
         <v>45753</v>
       </c>
@@ -4167,22 +4269,25 @@
         <v>14805</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
-      </c>
-      <c r="G141">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141">
         <v>8</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:9">
       <c r="A142" s="2">
         <v>45753</v>
       </c>
@@ -4193,22 +4298,25 @@
         <v>14805</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G142">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="G142" t="s">
+        <v>37</v>
       </c>
       <c r="H142">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="2">
         <v>45753</v>
       </c>
@@ -4219,22 +4327,25 @@
         <v>14805</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
-      </c>
-      <c r="G143">
+        <v>27</v>
+      </c>
+      <c r="G143" t="s">
+        <v>38</v>
+      </c>
+      <c r="H143">
         <v>15</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>33.55</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:9">
       <c r="A144" s="2">
         <v>45753</v>
       </c>
@@ -4245,22 +4356,25 @@
         <v>14805</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144">
+        <v>27</v>
+      </c>
+      <c r="G144" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144">
         <v>5</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <v>45753</v>
       </c>
@@ -4271,22 +4385,25 @@
         <v>14805</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
-      </c>
-      <c r="G145">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="G145" t="s">
+        <v>40</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <v>45753</v>
       </c>
@@ -4297,22 +4414,25 @@
         <v>14805</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E146" t="s">
         <v>24</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G146" t="s">
+        <v>48</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="2">
         <v>45753</v>
       </c>
@@ -4323,22 +4443,25 @@
         <v>14805</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E147" t="s">
         <v>24</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
-      </c>
-      <c r="G147">
+        <v>28</v>
+      </c>
+      <c r="G147" t="s">
+        <v>41</v>
+      </c>
+      <c r="H147">
         <v>25</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <v>45753</v>
       </c>
@@ -4349,22 +4472,25 @@
         <v>14805</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E148" t="s">
         <v>24</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
-      </c>
-      <c r="G148">
+        <v>28</v>
+      </c>
+      <c r="G148" t="s">
+        <v>42</v>
+      </c>
+      <c r="H148">
         <v>10</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:9">
       <c r="A149" s="2">
         <v>45753</v>
       </c>
@@ -4375,22 +4501,25 @@
         <v>14805</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E149" t="s">
         <v>24</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
-      </c>
-      <c r="G149">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="G149" t="s">
+        <v>47</v>
       </c>
       <c r="H149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="2">
         <v>45753</v>
       </c>
@@ -4401,22 +4530,25 @@
         <v>14805</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E150" t="s">
         <v>24</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
-      </c>
-      <c r="G150">
+        <v>28</v>
+      </c>
+      <c r="G150" t="s">
+        <v>43</v>
+      </c>
+      <c r="H150">
         <v>7</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>21.5</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:9">
       <c r="A151" s="2">
         <v>45753</v>
       </c>
@@ -4427,22 +4559,25 @@
         <v>14805</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E151" t="s">
         <v>24</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
-      </c>
-      <c r="G151">
+        <v>28</v>
+      </c>
+      <c r="G151" t="s">
+        <v>46</v>
+      </c>
+      <c r="H151">
         <v>7</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:9">
       <c r="A152" s="2">
         <v>45753</v>
       </c>
@@ -4453,22 +4588,25 @@
         <v>14805</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
-      </c>
-      <c r="G152">
+        <v>29</v>
+      </c>
+      <c r="G152" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152">
         <v>5</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:9">
       <c r="A153" s="2">
         <v>45753</v>
       </c>
@@ -4479,22 +4617,25 @@
         <v>14805</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
-      </c>
-      <c r="G153">
+        <v>29</v>
+      </c>
+      <c r="G153" t="s">
+        <v>45</v>
+      </c>
+      <c r="H153">
         <v>7</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:9">
       <c r="A154" s="2">
         <v>45753</v>
       </c>
@@ -4505,22 +4646,25 @@
         <v>14805</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G154" t="s">
+        <v>45</v>
       </c>
       <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:9">
       <c r="A155" s="2">
         <v>45755</v>
       </c>
@@ -4531,22 +4675,25 @@
         <v>14492</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>33</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="2">
         <v>45755</v>
       </c>
@@ -4557,22 +4704,25 @@
         <v>14492</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H156">
         <v>14</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>103</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:9">
       <c r="A157" s="2">
         <v>45755</v>
       </c>
@@ -4583,22 +4733,25 @@
         <v>14492</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
-      </c>
-      <c r="G157">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157">
         <v>9</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>123</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:9">
       <c r="A158" s="2">
         <v>45755</v>
       </c>
@@ -4609,22 +4762,25 @@
         <v>14492</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
         <v>25</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G158" t="s">
+        <v>45</v>
       </c>
       <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:9">
       <c r="A159" s="2">
         <v>45755</v>
       </c>
@@ -4635,22 +4791,22 @@
         <v>14609</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G159" t="s">
+        <v>33</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="2">
         <v>45755</v>
       </c>
@@ -4661,22 +4817,22 @@
         <v>14609</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
-      </c>
-      <c r="G160">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H160">
         <v>14</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:9">
       <c r="A161" s="2">
         <v>45755</v>
       </c>
@@ -4687,22 +4843,22 @@
         <v>14609</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
-      </c>
-      <c r="E161" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
-      </c>
-      <c r="G161">
+        <v>26</v>
+      </c>
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161">
         <v>9</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>123</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:9">
       <c r="A162" s="2">
         <v>45755</v>
       </c>
@@ -4713,22 +4869,22 @@
         <v>14609</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
-      </c>
-      <c r="E162" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G162" t="s">
+        <v>45</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:9">
       <c r="A163" s="2">
         <v>45755</v>
       </c>
@@ -4739,22 +4895,25 @@
         <v>14669</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G163" t="s">
+        <v>33</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="2">
         <v>45755</v>
       </c>
@@ -4765,22 +4924,25 @@
         <v>14669</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
-      </c>
-      <c r="G164">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="H164">
         <v>12</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>118</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:9">
       <c r="A165" s="2">
         <v>45755</v>
       </c>
@@ -4791,22 +4953,25 @@
         <v>14669</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E165" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
-      </c>
-      <c r="G165">
+        <v>26</v>
+      </c>
+      <c r="G165" t="s">
+        <v>36</v>
+      </c>
+      <c r="H165">
         <v>8</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>102</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:9">
       <c r="A166" s="2">
         <v>45755</v>
       </c>
@@ -4817,22 +4982,25 @@
         <v>14669</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
-      </c>
-      <c r="G166">
+        <v>29</v>
+      </c>
+      <c r="G166" t="s">
+        <v>45</v>
+      </c>
+      <c r="H166">
         <v>11</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:9">
       <c r="A167" s="2">
         <v>45755</v>
       </c>
@@ -4843,22 +5011,25 @@
         <v>14669</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G167" t="s">
+        <v>45</v>
       </c>
       <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:9">
       <c r="A168" s="2">
         <v>45755</v>
       </c>
@@ -4869,22 +5040,25 @@
         <v>14669</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G168" t="s">
+        <v>45</v>
       </c>
       <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:9">
       <c r="A169" s="2">
         <v>45755</v>
       </c>
@@ -4895,22 +5069,22 @@
         <v>14826</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G169" t="s">
+        <v>33</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="2">
         <v>45755</v>
       </c>
@@ -4921,22 +5095,22 @@
         <v>14826</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
-      </c>
-      <c r="G170">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170">
         <v>12</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:9">
       <c r="A171" s="2">
         <v>45755</v>
       </c>
@@ -4947,22 +5121,22 @@
         <v>14826</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
-      </c>
-      <c r="G171">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s">
+        <v>36</v>
+      </c>
+      <c r="H171">
         <v>8</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:9">
       <c r="A172" s="2">
         <v>45755</v>
       </c>
@@ -4973,22 +5147,22 @@
         <v>14826</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
-      </c>
-      <c r="G172">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
+        <v>45</v>
+      </c>
+      <c r="H172">
         <v>9</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:9">
       <c r="A173" s="2">
         <v>45755</v>
       </c>
@@ -4999,22 +5173,22 @@
         <v>14826</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G173" t="s">
+        <v>45</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:9">
       <c r="A174" s="2">
         <v>45755</v>
       </c>
@@ -5025,22 +5199,22 @@
         <v>14831</v>
       </c>
       <c r="D174" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G174" t="s">
+        <v>33</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="2">
         <v>45755</v>
       </c>
@@ -5051,22 +5225,22 @@
         <v>14831</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175">
+        <v>26</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="H175">
         <v>12</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:9">
       <c r="A176" s="2">
         <v>45755</v>
       </c>
@@ -5077,22 +5251,22 @@
         <v>14831</v>
       </c>
       <c r="D176" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
-      </c>
-      <c r="G176">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s">
+        <v>36</v>
+      </c>
+      <c r="H176">
         <v>8</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:9">
       <c r="A177" s="2">
         <v>45755</v>
       </c>
@@ -5103,22 +5277,22 @@
         <v>14831</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177">
+        <v>29</v>
+      </c>
+      <c r="G177" t="s">
+        <v>45</v>
+      </c>
+      <c r="H177">
         <v>7</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>196</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:9">
       <c r="A178" s="2">
         <v>45755</v>
       </c>
@@ -5129,22 +5303,22 @@
         <v>14831</v>
       </c>
       <c r="D178" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G178" t="s">
+        <v>45</v>
       </c>
       <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:9">
       <c r="A179" s="2">
         <v>45756</v>
       </c>
@@ -5155,22 +5329,22 @@
         <v>14832</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G179" t="s">
+        <v>45</v>
       </c>
       <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:9">
       <c r="A180" s="2">
         <v>45756</v>
       </c>
@@ -5181,18 +5355,18 @@
         <v>14833</v>
       </c>
       <c r="D180" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G180" t="s">
+        <v>45</v>
       </c>
       <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
         <v>24</v>
       </c>
     </row>

--- a/data 2025-04-04.xlsx
+++ b/data 2025-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="50">
   <si>
     <t>Ngày khai trương</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Miền Tây</t>
+  </si>
+  <si>
+    <t>Chưa cập nhật</t>
   </si>
   <si>
     <t>Cao Nguyên</t>
@@ -574,10 +577,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -603,10 +606,10 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -632,10 +635,10 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -661,10 +664,10 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -690,10 +693,10 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -719,10 +722,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -748,10 +751,10 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -777,10 +780,10 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -806,10 +809,10 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -835,10 +838,10 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -864,10 +867,10 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -893,10 +896,10 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -922,10 +925,10 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -951,10 +954,10 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -980,10 +983,10 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1009,10 +1012,10 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1038,10 +1041,10 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1067,10 +1070,10 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -1096,10 +1099,10 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20">
         <v>18</v>
@@ -1125,10 +1128,10 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1154,10 +1157,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1179,11 +1182,14 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>19</v>
@@ -1205,11 +1211,14 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1231,11 +1240,14 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -1257,11 +1269,14 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1283,11 +1298,14 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>34</v>
@@ -1309,11 +1327,14 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>28</v>
@@ -1335,11 +1356,14 @@
       <c r="D29" t="s">
         <v>10</v>
       </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -1361,11 +1385,14 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>11</v>
@@ -1387,11 +1414,14 @@
       <c r="D31" t="s">
         <v>10</v>
       </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>8</v>
@@ -1413,11 +1443,14 @@
       <c r="D32" t="s">
         <v>10</v>
       </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -1439,11 +1472,14 @@
       <c r="D33" t="s">
         <v>10</v>
       </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1465,11 +1501,14 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>16</v>
@@ -1491,11 +1530,14 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -1517,11 +1559,14 @@
       <c r="D36" t="s">
         <v>10</v>
       </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1543,11 +1588,14 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -1569,11 +1617,14 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -1595,11 +1646,14 @@
       <c r="D39" t="s">
         <v>10</v>
       </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -1621,11 +1675,14 @@
       <c r="D40" t="s">
         <v>10</v>
       </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1647,11 +1704,14 @@
       <c r="D41" t="s">
         <v>10</v>
       </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -1673,11 +1733,14 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42">
         <v>17</v>
@@ -1699,11 +1762,14 @@
       <c r="D43" t="s">
         <v>10</v>
       </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1725,11 +1791,14 @@
       <c r="D44" t="s">
         <v>10</v>
       </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1751,11 +1820,14 @@
       <c r="D45" t="s">
         <v>11</v>
       </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>22</v>
@@ -1777,11 +1849,14 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -1803,11 +1878,14 @@
       <c r="D47" t="s">
         <v>11</v>
       </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>30</v>
@@ -1829,11 +1907,14 @@
       <c r="D48" t="s">
         <v>11</v>
       </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>25</v>
@@ -1855,11 +1936,14 @@
       <c r="D49" t="s">
         <v>11</v>
       </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>6</v>
@@ -1881,11 +1965,14 @@
       <c r="D50" t="s">
         <v>11</v>
       </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>11</v>
@@ -1907,11 +1994,14 @@
       <c r="D51" t="s">
         <v>11</v>
       </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>8</v>
@@ -1933,11 +2023,14 @@
       <c r="D52" t="s">
         <v>11</v>
       </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -1959,11 +2052,14 @@
       <c r="D53" t="s">
         <v>11</v>
       </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1985,11 +2081,14 @@
       <c r="D54" t="s">
         <v>11</v>
       </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>15</v>
@@ -2011,11 +2110,14 @@
       <c r="D55" t="s">
         <v>11</v>
       </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -2037,11 +2139,14 @@
       <c r="D56" t="s">
         <v>11</v>
       </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -2063,11 +2168,14 @@
       <c r="D57" t="s">
         <v>11</v>
       </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>10</v>
@@ -2089,11 +2197,14 @@
       <c r="D58" t="s">
         <v>11</v>
       </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H58">
         <v>13</v>
@@ -2115,11 +2226,14 @@
       <c r="D59" t="s">
         <v>11</v>
       </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -2141,11 +2255,14 @@
       <c r="D60" t="s">
         <v>11</v>
       </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>6</v>
@@ -2167,11 +2284,14 @@
       <c r="D61" t="s">
         <v>11</v>
       </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>7</v>
@@ -2193,11 +2313,14 @@
       <c r="D62" t="s">
         <v>11</v>
       </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2219,11 +2342,14 @@
       <c r="D63" t="s">
         <v>11</v>
       </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63">
         <v>10</v>
@@ -2245,11 +2371,14 @@
       <c r="D64" t="s">
         <v>11</v>
       </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2271,11 +2400,14 @@
       <c r="D65" t="s">
         <v>11</v>
       </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2297,11 +2429,14 @@
       <c r="D66" t="s">
         <v>12</v>
       </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>24</v>
@@ -2323,11 +2458,14 @@
       <c r="D67" t="s">
         <v>12</v>
       </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -2349,11 +2487,14 @@
       <c r="D68" t="s">
         <v>12</v>
       </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>6</v>
@@ -2375,11 +2516,14 @@
       <c r="D69" t="s">
         <v>12</v>
       </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2401,11 +2545,14 @@
       <c r="D70" t="s">
         <v>12</v>
       </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>38</v>
@@ -2427,11 +2574,14 @@
       <c r="D71" t="s">
         <v>12</v>
       </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2453,11 +2603,14 @@
       <c r="D72" t="s">
         <v>12</v>
       </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>30</v>
@@ -2479,11 +2632,14 @@
       <c r="D73" t="s">
         <v>12</v>
       </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -2505,11 +2661,14 @@
       <c r="D74" t="s">
         <v>12</v>
       </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>10</v>
@@ -2531,11 +2690,14 @@
       <c r="D75" t="s">
         <v>12</v>
       </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>8</v>
@@ -2557,11 +2719,14 @@
       <c r="D76" t="s">
         <v>12</v>
       </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
       <c r="F76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2583,11 +2748,14 @@
       <c r="D77" t="s">
         <v>12</v>
       </c>
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
       <c r="F77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2609,11 +2777,14 @@
       <c r="D78" t="s">
         <v>12</v>
       </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
       <c r="F78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>16</v>
@@ -2635,11 +2806,14 @@
       <c r="D79" t="s">
         <v>12</v>
       </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
       <c r="F79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -2661,11 +2835,14 @@
       <c r="D80" t="s">
         <v>12</v>
       </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
       <c r="F80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -2687,11 +2864,14 @@
       <c r="D81" t="s">
         <v>12</v>
       </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -2713,11 +2893,14 @@
       <c r="D82" t="s">
         <v>12</v>
       </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <v>20</v>
@@ -2739,11 +2922,14 @@
       <c r="D83" t="s">
         <v>12</v>
       </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H83">
         <v>17</v>
@@ -2765,11 +2951,14 @@
       <c r="D84" t="s">
         <v>12</v>
       </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -2791,11 +2980,14 @@
       <c r="D85" t="s">
         <v>12</v>
       </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>7</v>
@@ -2817,11 +3009,14 @@
       <c r="D86" t="s">
         <v>12</v>
       </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86">
         <v>11</v>
@@ -2843,11 +3038,14 @@
       <c r="D87" t="s">
         <v>12</v>
       </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -2869,11 +3067,14 @@
       <c r="D88" t="s">
         <v>12</v>
       </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88">
         <v>9</v>
@@ -2895,11 +3096,14 @@
       <c r="D89" t="s">
         <v>12</v>
       </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -2921,11 +3125,14 @@
       <c r="D90" t="s">
         <v>12</v>
       </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -2947,11 +3154,14 @@
       <c r="D91" t="s">
         <v>13</v>
       </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>25</v>
@@ -2973,11 +3183,14 @@
       <c r="D92" t="s">
         <v>13</v>
       </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -2999,11 +3212,14 @@
       <c r="D93" t="s">
         <v>13</v>
       </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -3025,11 +3241,14 @@
       <c r="D94" t="s">
         <v>13</v>
       </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>36</v>
@@ -3051,11 +3270,14 @@
       <c r="D95" t="s">
         <v>13</v>
       </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>26</v>
@@ -3077,11 +3299,14 @@
       <c r="D96" t="s">
         <v>13</v>
       </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
       <c r="F96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>6</v>
@@ -3103,11 +3328,14 @@
       <c r="D97" t="s">
         <v>13</v>
       </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H97">
         <v>9</v>
@@ -3129,11 +3357,14 @@
       <c r="D98" t="s">
         <v>13</v>
       </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>8</v>
@@ -3155,11 +3386,14 @@
       <c r="D99" t="s">
         <v>13</v>
       </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
       <c r="F99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -3181,11 +3415,14 @@
       <c r="D100" t="s">
         <v>13</v>
       </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -3207,11 +3444,14 @@
       <c r="D101" t="s">
         <v>13</v>
       </c>
+      <c r="E101" t="s">
+        <v>24</v>
+      </c>
       <c r="F101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>17</v>
@@ -3233,11 +3473,14 @@
       <c r="D102" t="s">
         <v>13</v>
       </c>
+      <c r="E102" t="s">
+        <v>24</v>
+      </c>
       <c r="F102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>5</v>
@@ -3259,11 +3502,14 @@
       <c r="D103" t="s">
         <v>13</v>
       </c>
+      <c r="E103" t="s">
+        <v>24</v>
+      </c>
       <c r="F103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -3285,11 +3531,14 @@
       <c r="D104" t="s">
         <v>13</v>
       </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -3311,11 +3560,14 @@
       <c r="D105" t="s">
         <v>13</v>
       </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -3337,11 +3589,14 @@
       <c r="D106" t="s">
         <v>13</v>
       </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -3363,11 +3618,14 @@
       <c r="D107" t="s">
         <v>13</v>
       </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
       <c r="F107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -3389,11 +3647,14 @@
       <c r="D108" t="s">
         <v>13</v>
       </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -3415,11 +3676,14 @@
       <c r="D109" t="s">
         <v>13</v>
       </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109">
         <v>9</v>
@@ -3441,11 +3705,14 @@
       <c r="D110" t="s">
         <v>13</v>
       </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -3467,11 +3734,14 @@
       <c r="D111" t="s">
         <v>13</v>
       </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -3493,11 +3763,14 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>23</v>
@@ -3519,11 +3792,14 @@
       <c r="D113" t="s">
         <v>14</v>
       </c>
+      <c r="E113" t="s">
+        <v>24</v>
+      </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>4</v>
@@ -3545,11 +3821,14 @@
       <c r="D114" t="s">
         <v>14</v>
       </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -3571,11 +3850,14 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
       <c r="F115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>31</v>
@@ -3597,11 +3879,14 @@
       <c r="D116" t="s">
         <v>14</v>
       </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
       <c r="F116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>23</v>
@@ -3623,11 +3908,14 @@
       <c r="D117" t="s">
         <v>14</v>
       </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
       <c r="F117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>7</v>
@@ -3649,11 +3937,14 @@
       <c r="D118" t="s">
         <v>14</v>
       </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
       <c r="F118" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>10</v>
@@ -3675,11 +3966,14 @@
       <c r="D119" t="s">
         <v>14</v>
       </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>8</v>
@@ -3701,11 +3995,14 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
       <c r="F120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -3727,11 +4024,14 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
       <c r="F121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>16</v>
@@ -3753,11 +4053,14 @@
       <c r="D122" t="s">
         <v>14</v>
       </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
       <c r="F122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>5</v>
@@ -3779,11 +4082,14 @@
       <c r="D123" t="s">
         <v>14</v>
       </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
       <c r="F123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -3805,11 +4111,14 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>7</v>
@@ -3831,11 +4140,14 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>12</v>
@@ -3857,11 +4169,14 @@
       <c r="D126" t="s">
         <v>14</v>
       </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -3883,11 +4198,14 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -3909,11 +4227,14 @@
       <c r="D128" t="s">
         <v>14</v>
       </c>
+      <c r="E128" t="s">
+        <v>24</v>
+      </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H128">
         <v>11</v>
@@ -3935,11 +4256,14 @@
       <c r="D129" t="s">
         <v>14</v>
       </c>
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -3961,11 +4285,14 @@
       <c r="D130" t="s">
         <v>14</v>
       </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>9</v>
@@ -3987,11 +4314,14 @@
       <c r="D131" t="s">
         <v>14</v>
       </c>
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -4013,11 +4343,14 @@
       <c r="D132" t="s">
         <v>14</v>
       </c>
+      <c r="E132" t="s">
+        <v>24</v>
+      </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -4040,13 +4373,13 @@
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>18</v>
@@ -4069,13 +4402,13 @@
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>4</v>
@@ -4098,13 +4431,13 @@
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -4127,13 +4460,13 @@
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -4156,13 +4489,13 @@
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>27</v>
@@ -4185,13 +4518,13 @@
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>22</v>
@@ -4214,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>5</v>
@@ -4243,13 +4576,13 @@
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H140">
         <v>12</v>
@@ -4272,13 +4605,13 @@
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>8</v>
@@ -4301,13 +4634,13 @@
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -4330,13 +4663,13 @@
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>15</v>
@@ -4359,13 +4692,13 @@
         <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H144">
         <v>5</v>
@@ -4388,13 +4721,13 @@
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -4417,13 +4750,13 @@
         <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -4446,13 +4779,13 @@
         <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H147">
         <v>25</v>
@@ -4475,13 +4808,13 @@
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H148">
         <v>10</v>
@@ -4504,13 +4837,13 @@
         <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -4533,13 +4866,13 @@
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>7</v>
@@ -4562,13 +4895,13 @@
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H151">
         <v>7</v>
@@ -4591,13 +4924,13 @@
         <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H152">
         <v>5</v>
@@ -4620,13 +4953,13 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H153">
         <v>7</v>
@@ -4649,13 +4982,13 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -4678,13 +5011,13 @@
         <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -4707,13 +5040,13 @@
         <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>14</v>
@@ -4736,13 +5069,13 @@
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>9</v>
@@ -4765,13 +5098,13 @@
         <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -4793,11 +5126,14 @@
       <c r="D159" t="s">
         <v>17</v>
       </c>
+      <c r="E159" t="s">
+        <v>24</v>
+      </c>
       <c r="F159" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -4819,11 +5155,14 @@
       <c r="D160" t="s">
         <v>17</v>
       </c>
+      <c r="E160" t="s">
+        <v>24</v>
+      </c>
       <c r="F160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>14</v>
@@ -4845,11 +5184,14 @@
       <c r="D161" t="s">
         <v>17</v>
       </c>
+      <c r="E161" t="s">
+        <v>24</v>
+      </c>
       <c r="F161" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>9</v>
@@ -4871,11 +5213,14 @@
       <c r="D162" t="s">
         <v>17</v>
       </c>
+      <c r="E162" t="s">
+        <v>24</v>
+      </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -4901,10 +5246,10 @@
         <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -4930,10 +5275,10 @@
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>12</v>
@@ -4959,10 +5304,10 @@
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>8</v>
@@ -4988,10 +5333,10 @@
         <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>11</v>
@@ -5017,10 +5362,10 @@
         <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -5046,10 +5391,10 @@
         <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -5071,11 +5416,14 @@
       <c r="D169" t="s">
         <v>19</v>
       </c>
+      <c r="E169" t="s">
+        <v>24</v>
+      </c>
       <c r="F169" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -5097,11 +5445,14 @@
       <c r="D170" t="s">
         <v>19</v>
       </c>
+      <c r="E170" t="s">
+        <v>24</v>
+      </c>
       <c r="F170" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>12</v>
@@ -5123,11 +5474,14 @@
       <c r="D171" t="s">
         <v>19</v>
       </c>
+      <c r="E171" t="s">
+        <v>24</v>
+      </c>
       <c r="F171" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H171">
         <v>8</v>
@@ -5149,11 +5503,14 @@
       <c r="D172" t="s">
         <v>19</v>
       </c>
+      <c r="E172" t="s">
+        <v>24</v>
+      </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H172">
         <v>9</v>
@@ -5175,11 +5532,14 @@
       <c r="D173" t="s">
         <v>19</v>
       </c>
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -5201,11 +5561,14 @@
       <c r="D174" t="s">
         <v>20</v>
       </c>
+      <c r="E174" t="s">
+        <v>24</v>
+      </c>
       <c r="F174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -5227,11 +5590,14 @@
       <c r="D175" t="s">
         <v>20</v>
       </c>
+      <c r="E175" t="s">
+        <v>24</v>
+      </c>
       <c r="F175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>12</v>
@@ -5253,11 +5619,14 @@
       <c r="D176" t="s">
         <v>20</v>
       </c>
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
       <c r="F176" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>8</v>
@@ -5279,11 +5648,14 @@
       <c r="D177" t="s">
         <v>20</v>
       </c>
+      <c r="E177" t="s">
+        <v>24</v>
+      </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H177">
         <v>7</v>
@@ -5305,11 +5677,14 @@
       <c r="D178" t="s">
         <v>20</v>
       </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -5331,11 +5706,14 @@
       <c r="D179" t="s">
         <v>21</v>
       </c>
+      <c r="E179" t="s">
+        <v>24</v>
+      </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -5357,11 +5735,14 @@
       <c r="D180" t="s">
         <v>22</v>
       </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H180">
         <v>1</v>

--- a/data 2025-04-04.xlsx
+++ b/data 2025-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="50">
   <si>
     <t>Ngày khai trương</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -728,10 +728,10 @@
         <v>35</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I7">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -754,13 +754,13 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -783,13 +783,13 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -809,16 +809,16 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -826,7 +826,7 @@
         <v>45752</v>
       </c>
       <c r="B11" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C11">
         <v>14589</v>
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -855,7 +855,7 @@
         <v>45752</v>
       </c>
       <c r="B12" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C12">
         <v>14589</v>
@@ -873,10 +873,10 @@
         <v>39</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -899,13 +899,13 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -928,13 +928,13 @@
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -954,16 +954,16 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -986,13 +986,13 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1015,13 +1015,13 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1029,7 +1029,7 @@
         <v>45752</v>
       </c>
       <c r="B18" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C18">
         <v>14589</v>
@@ -1041,16 +1041,16 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1058,7 +1058,7 @@
         <v>45752</v>
       </c>
       <c r="B19" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C19">
         <v>14589</v>
@@ -1073,13 +1073,13 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I19">
-        <v>17.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1087,7 +1087,7 @@
         <v>45752</v>
       </c>
       <c r="B20" s="2">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="C20">
         <v>14589</v>
@@ -1105,10 +1105,10 @@
         <v>46</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1116,7 +1116,7 @@
         <v>45752</v>
       </c>
       <c r="B21" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="C21">
         <v>14589</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1145,28 +1145,28 @@
         <v>45752</v>
       </c>
       <c r="B22" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C22">
-        <v>14589</v>
+        <v>14689</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1174,7 +1174,7 @@
         <v>45752</v>
       </c>
       <c r="B23" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C23">
         <v>14689</v>
@@ -1189,13 +1189,13 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1232,7 +1232,7 @@
         <v>45752</v>
       </c>
       <c r="B25" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C25">
         <v>14689</v>
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>48</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I26">
-        <v>0.2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1305,13 +1305,13 @@
         <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>34</v>
       </c>
       <c r="I27">
-        <v>136</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1334,13 +1334,13 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>100.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1363,13 +1363,13 @@
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1389,16 +1389,16 @@
         <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1406,7 +1406,7 @@
         <v>45752</v>
       </c>
       <c r="B31" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C31">
         <v>14689</v>
@@ -1418,16 +1418,16 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1450,13 +1450,13 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1464,7 +1464,7 @@
         <v>45752</v>
       </c>
       <c r="B33" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C33">
         <v>14689</v>
@@ -1479,13 +1479,13 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1508,13 +1508,13 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>40.55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1534,16 +1534,16 @@
         <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1563,16 +1563,16 @@
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1595,13 +1595,13 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>12</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1624,13 +1624,13 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1638,7 +1638,7 @@
         <v>45752</v>
       </c>
       <c r="B39" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C39">
         <v>14689</v>
@@ -1650,16 +1650,16 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39">
-        <v>8.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1679,16 +1679,16 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1696,7 +1696,7 @@
         <v>45752</v>
       </c>
       <c r="B41" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="C41">
         <v>14689</v>
@@ -1711,13 +1711,13 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1725,7 +1725,7 @@
         <v>45752</v>
       </c>
       <c r="B42" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C42">
         <v>14689</v>
@@ -1743,10 +1743,10 @@
         <v>46</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>90</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>45752</v>
       </c>
       <c r="B43" s="2">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="C43">
-        <v>14689</v>
+        <v>14727</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>45752</v>
       </c>
       <c r="B44" s="2">
-        <v>45756</v>
+        <v>45753</v>
       </c>
       <c r="C44">
-        <v>14689</v>
+        <v>14727</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1827,13 +1827,13 @@
         <v>27</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I45">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1841,7 +1841,7 @@
         <v>45752</v>
       </c>
       <c r="B46" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C46">
         <v>14727</v>
@@ -1856,13 +1856,13 @@
         <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1885,13 +1885,13 @@
         <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I47">
-        <v>147</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1914,13 +1914,13 @@
         <v>27</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I48">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1940,16 +1940,16 @@
         <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>21</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1957,7 +1957,7 @@
         <v>45752</v>
       </c>
       <c r="B50" s="2">
-        <v>45754</v>
+        <v>45752</v>
       </c>
       <c r="C50">
         <v>14727</v>
@@ -1969,16 +1969,16 @@
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1998,16 +1998,16 @@
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I51">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2030,13 +2030,13 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>3.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2044,7 +2044,7 @@
         <v>45752</v>
       </c>
       <c r="B53" s="2">
-        <v>45752</v>
+        <v>45754</v>
       </c>
       <c r="C53">
         <v>14727</v>
@@ -2059,13 +2059,13 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2085,16 +2085,16 @@
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2114,16 +2114,16 @@
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I55">
-        <v>74</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2143,16 +2143,16 @@
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2175,13 +2175,13 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
         <v>10</v>
-      </c>
-      <c r="I57">
-        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2204,13 +2204,13 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H58">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>23.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2218,7 +2218,7 @@
         <v>45752</v>
       </c>
       <c r="B59" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C59">
         <v>14727</v>
@@ -2230,16 +2230,16 @@
         <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2259,16 +2259,16 @@
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2276,7 +2276,7 @@
         <v>45752</v>
       </c>
       <c r="B61" s="2">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="C61">
         <v>14727</v>
@@ -2288,16 +2288,16 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>7</v>
-      </c>
-      <c r="I61">
-        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2305,7 +2305,7 @@
         <v>45752</v>
       </c>
       <c r="B62" s="2">
-        <v>45753</v>
+        <v>45756</v>
       </c>
       <c r="C62">
         <v>14727</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2337,25 +2337,25 @@
         <v>45754</v>
       </c>
       <c r="C63">
-        <v>14727</v>
+        <v>14786</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I63">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2363,28 +2363,28 @@
         <v>45752</v>
       </c>
       <c r="B64" s="2">
-        <v>45755</v>
+        <v>45753</v>
       </c>
       <c r="C64">
-        <v>14727</v>
+        <v>14786</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2392,28 +2392,28 @@
         <v>45752</v>
       </c>
       <c r="B65" s="2">
-        <v>45756</v>
+        <v>45753</v>
       </c>
       <c r="C65">
-        <v>14727</v>
+        <v>14786</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2436,13 +2436,13 @@
         <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>123</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2450,7 +2450,7 @@
         <v>45752</v>
       </c>
       <c r="B67" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C67">
         <v>14786</v>
@@ -2465,13 +2465,13 @@
         <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I67">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2479,7 +2479,7 @@
         <v>45752</v>
       </c>
       <c r="B68" s="2">
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="C68">
         <v>14786</v>
@@ -2494,13 +2494,13 @@
         <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2523,13 +2523,13 @@
         <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I69">
-        <v>0.4</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2552,13 +2552,13 @@
         <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I70">
-        <v>253</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2566,7 +2566,7 @@
         <v>45752</v>
       </c>
       <c r="B71" s="2">
-        <v>45752</v>
+        <v>45754</v>
       </c>
       <c r="C71">
         <v>14786</v>
@@ -2581,13 +2581,13 @@
         <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2607,16 +2607,16 @@
         <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>133.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2624,7 +2624,7 @@
         <v>45752</v>
       </c>
       <c r="B73" s="2">
-        <v>45754</v>
+        <v>45752</v>
       </c>
       <c r="C73">
         <v>14786</v>
@@ -2636,16 +2636,16 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2665,16 +2665,16 @@
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I74">
-        <v>39</v>
+        <v>37.55</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2694,16 +2694,16 @@
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2726,10 +2726,10 @@
         <v>28</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -2740,7 +2740,7 @@
         <v>45752</v>
       </c>
       <c r="B77" s="2">
-        <v>45752</v>
+        <v>45754</v>
       </c>
       <c r="C77">
         <v>14786</v>
@@ -2752,13 +2752,13 @@
         <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -2781,16 +2781,16 @@
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H78">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I78">
-        <v>37.55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2810,16 +2810,16 @@
         <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I79">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2839,16 +2839,16 @@
         <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2871,13 +2871,13 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2900,13 +2900,13 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H82">
+        <v>11</v>
+      </c>
+      <c r="I82">
         <v>20</v>
-      </c>
-      <c r="I82">
-        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2914,7 +2914,7 @@
         <v>45752</v>
       </c>
       <c r="B83" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C83">
         <v>14786</v>
@@ -2926,16 +2926,16 @@
         <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H83">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2955,16 +2955,16 @@
         <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2972,7 +2972,7 @@
         <v>45752</v>
       </c>
       <c r="B85" s="2">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="C85">
         <v>14786</v>
@@ -2984,16 +2984,16 @@
         <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>7</v>
-      </c>
-      <c r="I85">
-        <v>11.5</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3001,7 +3001,7 @@
         <v>45752</v>
       </c>
       <c r="B86" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C86">
         <v>14786</v>
@@ -3013,16 +3013,16 @@
         <v>24</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3030,28 +3030,28 @@
         <v>45752</v>
       </c>
       <c r="B87" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C87">
-        <v>14786</v>
+        <v>14815</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
         <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I87">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3059,28 +3059,28 @@
         <v>45752</v>
       </c>
       <c r="B88" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C88">
-        <v>14786</v>
+        <v>14815</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
         <v>9</v>
-      </c>
-      <c r="I88">
-        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3088,28 +3088,28 @@
         <v>45752</v>
       </c>
       <c r="B89" s="2">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="C89">
-        <v>14786</v>
+        <v>14815</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
         <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3117,28 +3117,28 @@
         <v>45752</v>
       </c>
       <c r="B90" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C90">
-        <v>14786</v>
+        <v>14815</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
         <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3161,13 +3161,13 @@
         <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I91">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3175,7 +3175,7 @@
         <v>45752</v>
       </c>
       <c r="B92" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C92">
         <v>14815</v>
@@ -3190,13 +3190,13 @@
         <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I92">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3219,13 +3219,13 @@
         <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I93">
-        <v>0.6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3245,16 +3245,16 @@
         <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I94">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3262,7 +3262,7 @@
         <v>45752</v>
       </c>
       <c r="B95" s="2">
-        <v>45754</v>
+        <v>45752</v>
       </c>
       <c r="C95">
         <v>14815</v>
@@ -3274,16 +3274,16 @@
         <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3303,16 +3303,16 @@
         <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I96">
-        <v>22</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3332,16 +3332,16 @@
         <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H97">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3361,16 +3361,16 @@
         <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3390,16 +3390,16 @@
         <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>4</v>
-      </c>
-      <c r="I99">
-        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3407,7 +3407,7 @@
         <v>45752</v>
       </c>
       <c r="B100" s="2">
-        <v>45752</v>
+        <v>45754</v>
       </c>
       <c r="C100">
         <v>14815</v>
@@ -3419,16 +3419,16 @@
         <v>24</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3448,16 +3448,16 @@
         <v>24</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>31.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3477,16 +3477,16 @@
         <v>24</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3494,7 +3494,7 @@
         <v>45752</v>
       </c>
       <c r="B103" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C103">
         <v>14815</v>
@@ -3506,16 +3506,16 @@
         <v>24</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3535,16 +3535,16 @@
         <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3552,7 +3552,7 @@
         <v>45752</v>
       </c>
       <c r="B105" s="2">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="C105">
         <v>14815</v>
@@ -3564,16 +3564,16 @@
         <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3581,7 +3581,7 @@
         <v>45752</v>
       </c>
       <c r="B106" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C106">
         <v>14815</v>
@@ -3593,161 +3593,161 @@
         <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="B107" s="2">
         <v>45754</v>
       </c>
       <c r="C107">
-        <v>14815</v>
+        <v>14735</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
         <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="B108" s="2">
         <v>45753</v>
       </c>
       <c r="C108">
-        <v>14815</v>
+        <v>14735</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
         <v>24</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="B109" s="2">
         <v>45754</v>
       </c>
       <c r="C109">
-        <v>14815</v>
+        <v>14735</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" t="s">
         <v>24</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>80</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="B110" s="2">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="C110">
-        <v>14815</v>
+        <v>14735</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
         <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="B111" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C111">
-        <v>14815</v>
+        <v>14735</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
         <v>24</v>
       </c>
       <c r="F111" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111">
         <v>30</v>
       </c>
-      <c r="G111" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
       <c r="I111">
-        <v>12</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3770,13 +3770,13 @@
         <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I112">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3784,7 +3784,7 @@
         <v>45753</v>
       </c>
       <c r="B113" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C113">
         <v>14735</v>
@@ -3799,13 +3799,13 @@
         <v>27</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I113">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3825,16 +3825,16 @@
         <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>0.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3854,16 +3854,16 @@
         <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I115">
-        <v>264</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3883,16 +3883,16 @@
         <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>85.5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3912,16 +3912,16 @@
         <v>24</v>
       </c>
       <c r="F117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3941,16 +3941,16 @@
         <v>24</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I118">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3970,16 +3970,16 @@
         <v>24</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I119">
-        <v>67</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3999,16 +3999,16 @@
         <v>24</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H120">
         <v>4</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4028,16 +4028,16 @@
         <v>24</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>46.35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4057,16 +4057,16 @@
         <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I122">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4074,7 +4074,7 @@
         <v>45753</v>
       </c>
       <c r="B123" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C123">
         <v>14735</v>
@@ -4086,16 +4086,16 @@
         <v>24</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4115,16 +4115,16 @@
         <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I124">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4132,7 +4132,7 @@
         <v>45753</v>
       </c>
       <c r="B125" s="2">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="C125">
         <v>14735</v>
@@ -4144,16 +4144,16 @@
         <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>22.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4161,7 +4161,7 @@
         <v>45753</v>
       </c>
       <c r="B126" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C126">
         <v>14735</v>
@@ -4173,16 +4173,16 @@
         <v>24</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4193,25 +4193,25 @@
         <v>45754</v>
       </c>
       <c r="C127">
-        <v>14735</v>
+        <v>14805</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I127">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4219,28 +4219,28 @@
         <v>45753</v>
       </c>
       <c r="B128" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C128">
-        <v>14735</v>
+        <v>14805</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4251,25 +4251,25 @@
         <v>45753</v>
       </c>
       <c r="C129">
-        <v>14735</v>
+        <v>14805</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <v>6</v>
+      </c>
+      <c r="I129">
         <v>46</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4280,25 +4280,25 @@
         <v>45754</v>
       </c>
       <c r="C130">
-        <v>14735</v>
+        <v>14805</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>98</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4306,28 +4306,28 @@
         <v>45753</v>
       </c>
       <c r="B131" s="2">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="C131">
-        <v>14735</v>
+        <v>14805</v>
       </c>
       <c r="D131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I131">
-        <v>7</v>
+        <v>96.15000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4335,28 +4335,28 @@
         <v>45753</v>
       </c>
       <c r="B132" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C132">
-        <v>14735</v>
+        <v>14805</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4379,13 +4379,13 @@
         <v>27</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I133">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4393,7 +4393,7 @@
         <v>45753</v>
       </c>
       <c r="B134" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C134">
         <v>14805</v>
@@ -4408,13 +4408,13 @@
         <v>27</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I134">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4422,7 +4422,7 @@
         <v>45753</v>
       </c>
       <c r="B135" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C135">
         <v>14805</v>
@@ -4434,16 +4434,16 @@
         <v>25</v>
       </c>
       <c r="F135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4463,16 +4463,16 @@
         <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I136">
-        <v>0.4</v>
+        <v>33.55</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4492,16 +4492,16 @@
         <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I137">
-        <v>96.15000000000001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4521,16 +4521,16 @@
         <v>25</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H138">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>83.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4550,16 +4550,16 @@
         <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4579,16 +4579,16 @@
         <v>25</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I140">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4608,16 +4608,16 @@
         <v>25</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I141">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4637,10 +4637,10 @@
         <v>25</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -4666,16 +4666,16 @@
         <v>25</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I143">
-        <v>33.55</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4695,16 +4695,16 @@
         <v>25</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I144">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4712,7 +4712,7 @@
         <v>45753</v>
       </c>
       <c r="B145" s="2">
-        <v>45754</v>
+        <v>45753</v>
       </c>
       <c r="C145">
         <v>14805</v>
@@ -4724,16 +4724,16 @@
         <v>25</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4753,16 +4753,16 @@
         <v>25</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4770,7 +4770,7 @@
         <v>45753</v>
       </c>
       <c r="B147" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C147">
         <v>14805</v>
@@ -4782,219 +4782,219 @@
         <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H147">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B148" s="2">
         <v>45754</v>
       </c>
       <c r="C148">
-        <v>14805</v>
+        <v>14492</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B149" s="2">
         <v>45754</v>
       </c>
       <c r="C149">
-        <v>14805</v>
+        <v>14492</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G149" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B150" s="2">
         <v>45754</v>
       </c>
       <c r="C150">
-        <v>14805</v>
+        <v>14492</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I150">
-        <v>21.5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B151" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C151">
-        <v>14805</v>
+        <v>14492</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H151">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B152" s="2">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C152">
-        <v>14805</v>
+        <v>14609</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B153" s="2">
         <v>45754</v>
       </c>
       <c r="C153">
-        <v>14805</v>
+        <v>14609</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G153" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I153">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="B154" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C154">
-        <v>14805</v>
+        <v>14609</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G154" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I154">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5002,28 +5002,28 @@
         <v>45755</v>
       </c>
       <c r="B155" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C155">
-        <v>14492</v>
+        <v>14609</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E155" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F155" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5034,25 +5034,25 @@
         <v>45754</v>
       </c>
       <c r="C156">
-        <v>14492</v>
+        <v>14669</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
         <v>27</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5063,25 +5063,25 @@
         <v>45754</v>
       </c>
       <c r="C157">
-        <v>14492</v>
+        <v>14669</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E157" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F157" t="s">
         <v>27</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I157">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5089,28 +5089,28 @@
         <v>45755</v>
       </c>
       <c r="B158" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C158">
-        <v>14492</v>
+        <v>14669</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E158" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I158">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5121,25 +5121,25 @@
         <v>45754</v>
       </c>
       <c r="C159">
-        <v>14609</v>
+        <v>14669</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5147,28 +5147,28 @@
         <v>45755</v>
       </c>
       <c r="B160" s="2">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="C160">
-        <v>14609</v>
+        <v>14669</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H160">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5176,28 +5176,28 @@
         <v>45755</v>
       </c>
       <c r="B161" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C161">
-        <v>14609</v>
+        <v>14669</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H161">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>123</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5205,28 +5205,28 @@
         <v>45755</v>
       </c>
       <c r="B162" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C162">
-        <v>14609</v>
+        <v>14826</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E162" t="s">
         <v>24</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5237,25 +5237,25 @@
         <v>45754</v>
       </c>
       <c r="C163">
-        <v>14669</v>
+        <v>14826</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5266,25 +5266,25 @@
         <v>45754</v>
       </c>
       <c r="C164">
-        <v>14669</v>
+        <v>14826</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I164">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5295,25 +5295,25 @@
         <v>45754</v>
       </c>
       <c r="C165">
-        <v>14669</v>
+        <v>14826</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F165" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I165">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5321,16 +5321,16 @@
         <v>45755</v>
       </c>
       <c r="B166" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C166">
-        <v>14669</v>
+        <v>14826</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F166" t="s">
         <v>30</v>
@@ -5339,10 +5339,10 @@
         <v>46</v>
       </c>
       <c r="H166">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5350,28 +5350,28 @@
         <v>45755</v>
       </c>
       <c r="B167" s="2">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="C167">
-        <v>14669</v>
+        <v>14831</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5379,28 +5379,28 @@
         <v>45755</v>
       </c>
       <c r="B168" s="2">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="C168">
-        <v>14669</v>
+        <v>14831</v>
       </c>
       <c r="D168" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I168">
-        <v>6</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5411,10 +5411,10 @@
         <v>45754</v>
       </c>
       <c r="C169">
-        <v>14826</v>
+        <v>14831</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E169" t="s">
         <v>24</v>
@@ -5423,13 +5423,13 @@
         <v>27</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5440,25 +5440,25 @@
         <v>45754</v>
       </c>
       <c r="C170">
-        <v>14826</v>
+        <v>14831</v>
       </c>
       <c r="D170" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E170" t="s">
         <v>24</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H170">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I170">
-        <v>68</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5466,42 +5466,42 @@
         <v>45755</v>
       </c>
       <c r="B171" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C171">
-        <v>14826</v>
+        <v>14831</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E171" t="s">
         <v>24</v>
       </c>
       <c r="F171" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H171">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B172" s="2">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C172">
-        <v>14826</v>
+        <v>14832</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E172" t="s">
         <v>24</v>
@@ -5513,24 +5513,24 @@
         <v>46</v>
       </c>
       <c r="H172">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B173" s="2">
         <v>45756</v>
       </c>
       <c r="C173">
-        <v>14826</v>
+        <v>14833</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E173" t="s">
         <v>24</v>
@@ -5545,209 +5545,6 @@
         <v>1</v>
       </c>
       <c r="I173">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="2">
-        <v>45755</v>
-      </c>
-      <c r="B174" s="2">
-        <v>45754</v>
-      </c>
-      <c r="C174">
-        <v>14831</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" t="s">
-        <v>24</v>
-      </c>
-      <c r="F174" t="s">
-        <v>27</v>
-      </c>
-      <c r="G174" t="s">
-        <v>34</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="2">
-        <v>45755</v>
-      </c>
-      <c r="B175" s="2">
-        <v>45754</v>
-      </c>
-      <c r="C175">
-        <v>14831</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175" t="s">
-        <v>24</v>
-      </c>
-      <c r="F175" t="s">
-        <v>27</v>
-      </c>
-      <c r="G175" t="s">
-        <v>36</v>
-      </c>
-      <c r="H175">
-        <v>12</v>
-      </c>
-      <c r="I175">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="2">
-        <v>45755</v>
-      </c>
-      <c r="B176" s="2">
-        <v>45754</v>
-      </c>
-      <c r="C176">
-        <v>14831</v>
-      </c>
-      <c r="D176" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" t="s">
-        <v>24</v>
-      </c>
-      <c r="F176" t="s">
-        <v>27</v>
-      </c>
-      <c r="G176" t="s">
-        <v>37</v>
-      </c>
-      <c r="H176">
-        <v>8</v>
-      </c>
-      <c r="I176">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="2">
-        <v>45755</v>
-      </c>
-      <c r="B177" s="2">
-        <v>45754</v>
-      </c>
-      <c r="C177">
-        <v>14831</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" t="s">
-        <v>24</v>
-      </c>
-      <c r="F177" t="s">
-        <v>30</v>
-      </c>
-      <c r="G177" t="s">
-        <v>46</v>
-      </c>
-      <c r="H177">
-        <v>7</v>
-      </c>
-      <c r="I177">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="2">
-        <v>45755</v>
-      </c>
-      <c r="B178" s="2">
-        <v>45756</v>
-      </c>
-      <c r="C178">
-        <v>14831</v>
-      </c>
-      <c r="D178" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" t="s">
-        <v>30</v>
-      </c>
-      <c r="G178" t="s">
-        <v>46</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="2">
-        <v>45756</v>
-      </c>
-      <c r="B179" s="2">
-        <v>45756</v>
-      </c>
-      <c r="C179">
-        <v>14832</v>
-      </c>
-      <c r="D179" t="s">
-        <v>21</v>
-      </c>
-      <c r="E179" t="s">
-        <v>24</v>
-      </c>
-      <c r="F179" t="s">
-        <v>30</v>
-      </c>
-      <c r="G179" t="s">
-        <v>46</v>
-      </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="I179">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="2">
-        <v>45756</v>
-      </c>
-      <c r="B180" s="2">
-        <v>45756</v>
-      </c>
-      <c r="C180">
-        <v>14833</v>
-      </c>
-      <c r="D180" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180" t="s">
-        <v>24</v>
-      </c>
-      <c r="F180" t="s">
-        <v>30</v>
-      </c>
-      <c r="G180" t="s">
-        <v>46</v>
-      </c>
-      <c r="H180">
-        <v>1</v>
-      </c>
-      <c r="I180">
         <v>24</v>
       </c>
     </row>

--- a/data 2025-04-04.xlsx
+++ b/data 2025-04-04.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TASK MUA CHIA\KIỂM TRA NHU CẦU SIÊU THỊ KHAI TRƯƠNG\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4189FD-74DE-40E9-A3D8-F5E29CFCD0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$173</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="51">
   <si>
     <t>Ngày khai trương</t>
   </si>
@@ -40,7 +49,10 @@
     <t>Số lượng SKU</t>
   </si>
   <si>
-    <t>Số lượng cần mua</t>
+    <t>Tổng nhu cầu</t>
+  </si>
+  <si>
+    <t>Tổng SKU Notify</t>
   </si>
   <si>
     <t>14589-BHX_BLI_VLO - Cái Dầy</t>
@@ -169,11 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,25 +234,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +301,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -315,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -349,9 +370,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,18 +546,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -559,28 +596,31 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B2" s="3">
         <v>45754</v>
       </c>
       <c r="C2">
         <v>14589</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -588,28 +628,31 @@
       <c r="I2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B3" s="3">
         <v>45753</v>
       </c>
       <c r="C3">
         <v>14589</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -617,28 +660,31 @@
       <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B4" s="3">
         <v>45753</v>
       </c>
       <c r="C4">
         <v>14589</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -646,28 +692,31 @@
       <c r="I4">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B5" s="3">
         <v>45754</v>
       </c>
       <c r="C5">
         <v>14589</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -675,28 +724,31 @@
       <c r="I5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B6" s="3">
         <v>45754</v>
       </c>
       <c r="C6">
         <v>14589</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -704,28 +756,31 @@
       <c r="I6">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B7" s="3">
         <v>45754</v>
       </c>
       <c r="C7">
         <v>14589</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>35</v>
@@ -733,28 +788,31 @@
       <c r="I7">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="J7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B8" s="3">
         <v>45754</v>
       </c>
       <c r="C8">
         <v>14589</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -762,28 +820,31 @@
       <c r="I8">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B9" s="3">
         <v>45754</v>
       </c>
       <c r="C9">
         <v>14589</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -791,28 +852,31 @@
       <c r="I9">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B10" s="3">
         <v>45754</v>
       </c>
       <c r="C10">
         <v>14589</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -820,28 +884,31 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B11" s="3">
         <v>45753</v>
       </c>
       <c r="C11">
         <v>14589</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -849,28 +916,31 @@
       <c r="I11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B12" s="3">
         <v>45754</v>
       </c>
       <c r="C12">
         <v>14589</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -878,28 +948,31 @@
       <c r="I12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B13" s="3">
         <v>45754</v>
       </c>
       <c r="C13">
         <v>14589</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -907,28 +980,31 @@
       <c r="I13">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B14" s="3">
         <v>45754</v>
       </c>
       <c r="C14">
         <v>14589</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -936,28 +1012,31 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B15" s="3">
         <v>45754</v>
       </c>
       <c r="C15">
         <v>14589</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -965,28 +1044,31 @@
       <c r="I15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B16" s="3">
         <v>45754</v>
       </c>
       <c r="C16">
         <v>14589</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -994,28 +1076,31 @@
       <c r="I16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B17" s="3">
         <v>45754</v>
       </c>
       <c r="C17">
         <v>14589</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1023,28 +1108,31 @@
       <c r="I17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B18" s="3">
         <v>45753</v>
       </c>
       <c r="C18">
         <v>14589</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1052,28 +1140,31 @@
       <c r="I18">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B19" s="3">
         <v>45754</v>
       </c>
       <c r="C19">
         <v>14589</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -1081,28 +1172,31 @@
       <c r="I19">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="J19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B20" s="3">
         <v>45755</v>
       </c>
       <c r="C20">
         <v>14589</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1110,28 +1204,31 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B21" s="3">
         <v>45756</v>
       </c>
       <c r="C21">
         <v>14589</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1139,28 +1236,31 @@
       <c r="I21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B22" s="3">
         <v>45754</v>
       </c>
       <c r="C22">
         <v>14689</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>19</v>
@@ -1168,28 +1268,31 @@
       <c r="I22">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B23" s="3">
         <v>45753</v>
       </c>
       <c r="C23">
         <v>14689</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -1197,28 +1300,31 @@
       <c r="I23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B24" s="3">
         <v>45753</v>
       </c>
       <c r="C24">
         <v>14689</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -1226,28 +1332,31 @@
       <c r="I24">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B25" s="3">
         <v>45754</v>
       </c>
       <c r="C25">
         <v>14689</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1255,28 +1364,31 @@
       <c r="I25">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B26" s="3">
         <v>45754</v>
       </c>
       <c r="C26">
         <v>14689</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>34</v>
@@ -1284,28 +1396,31 @@
       <c r="I26">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="J26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B27" s="3">
         <v>45754</v>
       </c>
       <c r="C27">
         <v>14689</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>34</v>
@@ -1313,28 +1428,31 @@
       <c r="I27">
         <v>116.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="J27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B28" s="3">
         <v>45754</v>
       </c>
       <c r="C28">
         <v>14689</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -1342,28 +1460,31 @@
       <c r="I28">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B29" s="3">
         <v>45754</v>
       </c>
       <c r="C29">
         <v>14689</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>8</v>
@@ -1371,28 +1492,31 @@
       <c r="I29">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B30" s="3">
         <v>45754</v>
       </c>
       <c r="C30">
         <v>14689</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -1400,28 +1524,31 @@
       <c r="I30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B31" s="3">
         <v>45753</v>
       </c>
       <c r="C31">
         <v>14689</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1429,57 +1556,63 @@
       <c r="I31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B32" s="3">
         <v>45754</v>
       </c>
       <c r="C32">
         <v>14689</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>16</v>
       </c>
       <c r="I32">
-        <v>40.55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B33" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B33" s="3">
         <v>45754</v>
       </c>
       <c r="C33">
         <v>14689</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1487,28 +1620,31 @@
       <c r="I33">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B34" s="3">
         <v>45754</v>
       </c>
       <c r="C34">
         <v>14689</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1516,28 +1652,31 @@
       <c r="I34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B35" s="3">
         <v>45754</v>
       </c>
       <c r="C35">
         <v>14689</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -1545,28 +1684,31 @@
       <c r="I35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B36" s="3">
         <v>45754</v>
       </c>
       <c r="C36">
         <v>14689</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1574,28 +1716,31 @@
       <c r="I36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B37" s="3">
         <v>45754</v>
       </c>
       <c r="C37">
         <v>14689</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1603,28 +1748,31 @@
       <c r="I37">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B38" s="3">
         <v>45754</v>
       </c>
       <c r="C38">
         <v>14689</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -1632,28 +1780,31 @@
       <c r="I38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B39" s="3">
         <v>45753</v>
       </c>
       <c r="C39">
         <v>14689</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -1661,28 +1812,31 @@
       <c r="I39">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B40" s="3">
         <v>45754</v>
       </c>
       <c r="C40">
         <v>14689</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40">
         <v>17</v>
@@ -1690,28 +1844,31 @@
       <c r="I40">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="J40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B41" s="3">
         <v>45755</v>
       </c>
       <c r="C41">
         <v>14689</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1719,28 +1876,31 @@
       <c r="I41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B42" s="3">
         <v>45756</v>
       </c>
       <c r="C42">
         <v>14689</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1748,28 +1908,31 @@
       <c r="I42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B43" s="3">
         <v>45754</v>
       </c>
       <c r="C43">
         <v>14727</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>22</v>
@@ -1777,28 +1940,31 @@
       <c r="I43">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B44" s="3">
         <v>45753</v>
       </c>
       <c r="C44">
         <v>14727</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -1806,28 +1972,31 @@
       <c r="I44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B45" s="3">
         <v>45754</v>
       </c>
       <c r="C45">
         <v>14727</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>30</v>
@@ -1835,28 +2004,31 @@
       <c r="I45">
         <v>147</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="J45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B46" s="3">
         <v>45754</v>
       </c>
       <c r="C46">
         <v>14727</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>31</v>
@@ -1864,28 +2036,31 @@
       <c r="I46">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="J46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B47" s="3">
         <v>45754</v>
       </c>
       <c r="C47">
         <v>14727</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>11</v>
@@ -1893,28 +2068,31 @@
       <c r="I47">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B48" s="3">
         <v>45754</v>
       </c>
       <c r="C48">
         <v>14727</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>8</v>
@@ -1922,28 +2100,31 @@
       <c r="I48">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B49" s="3">
         <v>45754</v>
       </c>
       <c r="C49">
         <v>14727</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -1951,28 +2132,31 @@
       <c r="I49">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B50" s="3">
         <v>45752</v>
       </c>
       <c r="C50">
         <v>14727</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -1980,28 +2164,31 @@
       <c r="I50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B51" s="3">
         <v>45754</v>
       </c>
       <c r="C51">
         <v>14727</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>15</v>
@@ -2009,28 +2196,31 @@
       <c r="I51">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="J51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B52" s="3">
         <v>45754</v>
       </c>
       <c r="C52">
         <v>14727</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -2038,28 +2228,31 @@
       <c r="I52">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="J52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B53" s="3">
         <v>45754</v>
       </c>
       <c r="C53">
         <v>14727</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2067,28 +2260,31 @@
       <c r="I53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B54" s="3">
         <v>45754</v>
       </c>
       <c r="C54">
         <v>14727</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -2096,28 +2292,31 @@
       <c r="I54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="J54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B55" s="3">
         <v>45754</v>
       </c>
       <c r="C55">
         <v>14727</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>13</v>
@@ -2125,28 +2324,31 @@
       <c r="I55">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B56" s="3">
         <v>45754</v>
       </c>
       <c r="C56">
         <v>14727</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -2154,28 +2356,31 @@
       <c r="I56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B57" s="3">
         <v>45754</v>
       </c>
       <c r="C57">
         <v>14727</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57">
         <v>6</v>
@@ -2183,28 +2388,31 @@
       <c r="I57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B58" s="3">
         <v>45754</v>
       </c>
       <c r="C58">
         <v>14727</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58">
         <v>7</v>
@@ -2212,28 +2420,31 @@
       <c r="I58">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B59" s="3">
         <v>45753</v>
       </c>
       <c r="C59">
         <v>14727</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2241,28 +2452,31 @@
       <c r="I59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B60" s="3">
         <v>45754</v>
       </c>
       <c r="C60">
         <v>14727</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60">
         <v>10</v>
@@ -2270,28 +2484,31 @@
       <c r="I60">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="J60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B61" s="3">
         <v>45755</v>
       </c>
       <c r="C61">
         <v>14727</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2299,28 +2516,31 @@
       <c r="I61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B62" s="3">
         <v>45756</v>
       </c>
       <c r="C62">
         <v>14727</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2328,28 +2548,31 @@
       <c r="I62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B63" s="3">
         <v>45754</v>
       </c>
       <c r="C63">
         <v>14786</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>24</v>
@@ -2357,28 +2580,31 @@
       <c r="I63">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="J63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B64" s="3">
         <v>45753</v>
       </c>
       <c r="C64">
         <v>14786</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -2386,28 +2612,31 @@
       <c r="I64">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B65" s="3">
         <v>45753</v>
       </c>
       <c r="C65">
         <v>14786</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>6</v>
@@ -2415,28 +2644,31 @@
       <c r="I65">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B66" s="3">
         <v>45754</v>
       </c>
       <c r="C66">
         <v>14786</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2444,28 +2676,31 @@
       <c r="I66">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B67" s="3">
         <v>45754</v>
       </c>
       <c r="C67">
         <v>14786</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>38</v>
@@ -2473,28 +2708,31 @@
       <c r="I67">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="J67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B68" s="3">
         <v>45752</v>
       </c>
       <c r="C68">
         <v>14786</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -2502,28 +2740,31 @@
       <c r="I68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B69" s="3">
         <v>45754</v>
       </c>
       <c r="C69">
         <v>14786</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>35</v>
@@ -2531,28 +2772,31 @@
       <c r="I69">
         <v>152.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="J69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B70" s="3">
         <v>45754</v>
       </c>
       <c r="C70">
         <v>14786</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>10</v>
@@ -2560,28 +2804,31 @@
       <c r="I70">
         <v>39</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B71" s="3">
         <v>45754</v>
       </c>
       <c r="C71">
         <v>14786</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>8</v>
@@ -2589,28 +2836,31 @@
       <c r="I71">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B72" s="3">
         <v>45754</v>
       </c>
       <c r="C72">
         <v>14786</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2618,28 +2868,31 @@
       <c r="I72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B73" s="3">
         <v>45752</v>
       </c>
       <c r="C73">
         <v>14786</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2647,57 +2900,63 @@
       <c r="I73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B74" s="3">
         <v>45754</v>
       </c>
       <c r="C74">
         <v>14786</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>16</v>
       </c>
       <c r="I74">
-        <v>37.55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B75" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="J74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B75" s="3">
         <v>45754</v>
       </c>
       <c r="C75">
         <v>14786</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -2705,28 +2964,31 @@
       <c r="I75">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="J75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B76" s="3">
         <v>45754</v>
       </c>
       <c r="C76">
         <v>14786</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -2734,28 +2996,31 @@
       <c r="I76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B77" s="3">
         <v>45754</v>
       </c>
       <c r="C77">
         <v>14786</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -2763,28 +3028,31 @@
       <c r="I77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B78" s="3">
         <v>45754</v>
       </c>
       <c r="C78">
         <v>14786</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H78">
         <v>20</v>
@@ -2792,28 +3060,31 @@
       <c r="I78">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B79" s="3">
         <v>45754</v>
       </c>
       <c r="C79">
         <v>14786</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79">
         <v>17</v>
@@ -2821,28 +3092,31 @@
       <c r="I79">
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="J79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B80" s="3">
         <v>45754</v>
       </c>
       <c r="C80">
         <v>14786</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -2850,28 +3124,31 @@
       <c r="I80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B81" s="3">
         <v>45754</v>
       </c>
       <c r="C81">
         <v>14786</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -2879,28 +3156,31 @@
       <c r="I81">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B82" s="3">
         <v>45754</v>
       </c>
       <c r="C82">
         <v>14786</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82">
         <v>11</v>
@@ -2908,28 +3188,31 @@
       <c r="I82">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B83" s="3">
         <v>45753</v>
       </c>
       <c r="C83">
         <v>14786</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -2937,28 +3220,31 @@
       <c r="I83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B84" s="3">
         <v>45754</v>
       </c>
       <c r="C84">
         <v>14786</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84">
         <v>9</v>
@@ -2966,28 +3252,31 @@
       <c r="I84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B85" s="2">
+      <c r="J84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B85" s="3">
         <v>45755</v>
       </c>
       <c r="C85">
         <v>14786</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -2995,28 +3284,31 @@
       <c r="I85">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B86" s="3">
         <v>45756</v>
       </c>
       <c r="C86">
         <v>14786</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -3024,28 +3316,31 @@
       <c r="I86">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B87" s="3">
         <v>45754</v>
       </c>
       <c r="C87">
         <v>14815</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>25</v>
@@ -3053,28 +3348,31 @@
       <c r="I87">
         <v>125</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B88" s="2">
+      <c r="J87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B88" s="3">
         <v>45753</v>
       </c>
       <c r="C88">
         <v>14815</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -3082,28 +3380,31 @@
       <c r="I88">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B89" s="3">
         <v>45754</v>
       </c>
       <c r="C89">
         <v>14815</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3111,28 +3412,31 @@
       <c r="I89">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B90" s="2">
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B90" s="3">
         <v>45754</v>
       </c>
       <c r="C90">
         <v>14815</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>36</v>
@@ -3140,28 +3444,31 @@
       <c r="I90">
         <v>191</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="J90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B91" s="3">
         <v>45754</v>
       </c>
       <c r="C91">
         <v>14815</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>32</v>
@@ -3169,28 +3476,31 @@
       <c r="I91">
         <v>127</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="J91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B92" s="3">
         <v>45754</v>
       </c>
       <c r="C92">
         <v>14815</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>9</v>
@@ -3198,28 +3508,31 @@
       <c r="I92">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B93" s="3">
         <v>45754</v>
       </c>
       <c r="C93">
         <v>14815</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>8</v>
@@ -3227,28 +3540,31 @@
       <c r="I93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B94" s="3">
         <v>45754</v>
       </c>
       <c r="C94">
         <v>14815</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -3256,28 +3572,31 @@
       <c r="I94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B95" s="3">
         <v>45752</v>
       </c>
       <c r="C95">
         <v>14815</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -3285,57 +3604,63 @@
       <c r="I95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B96" s="3">
         <v>45754</v>
       </c>
       <c r="C96">
         <v>14815</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>17</v>
       </c>
       <c r="I96">
-        <v>31.75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B97" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B97" s="3">
         <v>45754</v>
       </c>
       <c r="C97">
         <v>14815</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>5</v>
@@ -3343,28 +3668,31 @@
       <c r="I97">
         <v>57</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="J97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B98" s="3">
         <v>45754</v>
       </c>
       <c r="C98">
         <v>14815</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -3372,28 +3700,31 @@
       <c r="I98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B99" s="3">
         <v>45754</v>
       </c>
       <c r="C99">
         <v>14815</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -3401,28 +3732,31 @@
       <c r="I99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B100" s="3">
         <v>45754</v>
       </c>
       <c r="C100">
         <v>14815</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -3430,28 +3764,31 @@
       <c r="I100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B101" s="3">
         <v>45754</v>
       </c>
       <c r="C101">
         <v>14815</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -3459,28 +3796,31 @@
       <c r="I101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B102" s="3">
         <v>45754</v>
       </c>
       <c r="C102">
         <v>14815</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -3488,28 +3828,31 @@
       <c r="I102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B103" s="2">
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B103" s="3">
         <v>45753</v>
       </c>
       <c r="C103">
         <v>14815</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -3517,28 +3860,31 @@
       <c r="I103">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B104" s="3">
         <v>45754</v>
       </c>
       <c r="C104">
         <v>14815</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104">
         <v>9</v>
@@ -3546,28 +3892,31 @@
       <c r="I104">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="J104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B105" s="3">
         <v>45755</v>
       </c>
       <c r="C105">
         <v>14815</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -3575,28 +3924,31 @@
       <c r="I105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B106" s="2">
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>45752</v>
+      </c>
+      <c r="B106" s="3">
         <v>45756</v>
       </c>
       <c r="C106">
         <v>14815</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -3604,28 +3956,31 @@
       <c r="I106">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="2">
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
         <v>45753</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>45754</v>
       </c>
       <c r="C107">
         <v>14735</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>23</v>
@@ -3633,28 +3988,31 @@
       <c r="I107">
         <v>92</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="2">
+      <c r="J107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
         <v>45753</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>45753</v>
       </c>
       <c r="C108">
         <v>14735</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -3662,28 +4020,31 @@
       <c r="I108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="2">
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
         <v>45753</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <v>45754</v>
       </c>
       <c r="C109">
         <v>14735</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -3691,28 +4052,31 @@
       <c r="I109">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="2">
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
         <v>45753</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>45754</v>
       </c>
       <c r="C110">
         <v>14735</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>31</v>
@@ -3720,28 +4084,31 @@
       <c r="I110">
         <v>264</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="2">
+      <c r="J110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
         <v>45753</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>45754</v>
       </c>
       <c r="C111">
         <v>14735</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>30</v>
@@ -3749,28 +4116,31 @@
       <c r="I111">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="2">
+      <c r="J111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
         <v>45753</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>45754</v>
       </c>
       <c r="C112">
         <v>14735</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>10</v>
@@ -3778,28 +4148,31 @@
       <c r="I112">
         <v>39</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="2">
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
         <v>45753</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>45754</v>
       </c>
       <c r="C113">
         <v>14735</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>8</v>
@@ -3807,28 +4180,31 @@
       <c r="I113">
         <v>67</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="2">
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
         <v>45753</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>45754</v>
       </c>
       <c r="C114">
         <v>14735</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -3836,57 +4212,63 @@
       <c r="I114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="2">
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
         <v>45753</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <v>45754</v>
       </c>
       <c r="C115">
         <v>14735</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>16</v>
       </c>
       <c r="I115">
-        <v>46.35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="J115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
         <v>45753</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>45754</v>
       </c>
       <c r="C116">
         <v>14735</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>5</v>
@@ -3894,28 +4276,31 @@
       <c r="I116">
         <v>92</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="2">
+      <c r="J116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
         <v>45753</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>45754</v>
       </c>
       <c r="C117">
         <v>14735</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -3923,28 +4308,31 @@
       <c r="I117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="2">
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
         <v>45753</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <v>45754</v>
       </c>
       <c r="C118">
         <v>14735</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>7</v>
@@ -3952,28 +4340,31 @@
       <c r="I118">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="2">
+      <c r="J118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
         <v>45753</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>45754</v>
       </c>
       <c r="C119">
         <v>14735</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H119">
         <v>12</v>
@@ -3981,28 +4372,31 @@
       <c r="I119">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="2">
+      <c r="J119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
         <v>45753</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>45754</v>
       </c>
       <c r="C120">
         <v>14735</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -4010,28 +4404,31 @@
       <c r="I120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="2">
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
         <v>45753</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <v>45754</v>
       </c>
       <c r="C121">
         <v>14735</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -4039,28 +4436,31 @@
       <c r="I121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="2">
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
         <v>45753</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>45754</v>
       </c>
       <c r="C122">
         <v>14735</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H122">
         <v>11</v>
@@ -4068,28 +4468,31 @@
       <c r="I122">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="2">
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
         <v>45753</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>45753</v>
       </c>
       <c r="C123">
         <v>14735</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -4097,28 +4500,31 @@
       <c r="I123">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="2">
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
         <v>45753</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <v>45754</v>
       </c>
       <c r="C124">
         <v>14735</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124">
         <v>9</v>
@@ -4126,28 +4532,31 @@
       <c r="I124">
         <v>98</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="2">
+      <c r="J124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
         <v>45753</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <v>45755</v>
       </c>
       <c r="C125">
         <v>14735</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -4155,28 +4564,31 @@
       <c r="I125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="2">
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
         <v>45753</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>45756</v>
       </c>
       <c r="C126">
         <v>14735</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -4184,28 +4596,31 @@
       <c r="I126">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="2">
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
         <v>45753</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>45754</v>
       </c>
       <c r="C127">
         <v>14805</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>18</v>
@@ -4213,28 +4628,31 @@
       <c r="I127">
         <v>53</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="2">
+      <c r="J127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
         <v>45753</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <v>45753</v>
       </c>
       <c r="C128">
         <v>14805</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -4242,28 +4660,31 @@
       <c r="I128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="2">
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
         <v>45753</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>45753</v>
       </c>
       <c r="C129">
         <v>14805</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>6</v>
@@ -4271,28 +4692,31 @@
       <c r="I129">
         <v>46</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="2">
+      <c r="J129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
         <v>45753</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>45754</v>
       </c>
       <c r="C130">
         <v>14805</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -4300,57 +4724,63 @@
       <c r="I130">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="2">
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
         <v>45753</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>45754</v>
       </c>
       <c r="C131">
         <v>14805</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>27</v>
       </c>
       <c r="I131">
-        <v>96.15000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="J131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
         <v>45753</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <v>45754</v>
       </c>
       <c r="C132">
         <v>14805</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>27</v>
@@ -4358,28 +4788,31 @@
       <c r="I132">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="2">
+      <c r="J132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
         <v>45753</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <v>45754</v>
       </c>
       <c r="C133">
         <v>14805</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>12</v>
@@ -4387,28 +4820,31 @@
       <c r="I133">
         <v>49</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="2">
+      <c r="J133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
         <v>45753</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <v>45754</v>
       </c>
       <c r="C134">
         <v>14805</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>8</v>
@@ -4416,28 +4852,31 @@
       <c r="I134">
         <v>64</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="2">
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
         <v>45753</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>45754</v>
       </c>
       <c r="C135">
         <v>14805</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -4445,57 +4884,63 @@
       <c r="I135">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="2">
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
         <v>45753</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <v>45754</v>
       </c>
       <c r="C136">
         <v>14805</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>15</v>
       </c>
       <c r="I136">
-        <v>33.55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="J136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
         <v>45753</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>45754</v>
       </c>
       <c r="C137">
         <v>14805</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -4503,28 +4948,31 @@
       <c r="I137">
         <v>40</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="2">
+      <c r="J137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
         <v>45753</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>45754</v>
       </c>
       <c r="C138">
         <v>14805</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -4532,28 +4980,31 @@
       <c r="I138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="2">
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
         <v>45753</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>45754</v>
       </c>
       <c r="C139">
         <v>14805</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -4561,28 +5012,31 @@
       <c r="I139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="2">
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
         <v>45753</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>45754</v>
       </c>
       <c r="C140">
         <v>14805</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H140">
         <v>25</v>
@@ -4590,28 +5044,31 @@
       <c r="I140">
         <v>31</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="2">
+      <c r="J140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
         <v>45753</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>45754</v>
       </c>
       <c r="C141">
         <v>14805</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>10</v>
@@ -4619,28 +5076,31 @@
       <c r="I141">
         <v>23</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="2">
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
         <v>45753</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <v>45754</v>
       </c>
       <c r="C142">
         <v>14805</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -4648,28 +5108,31 @@
       <c r="I142">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="2">
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
         <v>45753</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>45754</v>
       </c>
       <c r="C143">
         <v>14805</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H143">
         <v>7</v>
@@ -4677,28 +5140,31 @@
       <c r="I143">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="2">
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
         <v>45753</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <v>45754</v>
       </c>
       <c r="C144">
         <v>14805</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H144">
         <v>7</v>
@@ -4706,28 +5172,31 @@
       <c r="I144">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="2">
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
         <v>45753</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <v>45753</v>
       </c>
       <c r="C145">
         <v>14805</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H145">
         <v>5</v>
@@ -4735,28 +5204,31 @@
       <c r="I145">
         <v>67</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="2">
+      <c r="J145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
         <v>45753</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <v>45754</v>
       </c>
       <c r="C146">
         <v>14805</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H146">
         <v>7</v>
@@ -4764,28 +5236,31 @@
       <c r="I146">
         <v>54</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="2">
+      <c r="J146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
         <v>45753</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>45756</v>
       </c>
       <c r="C147">
         <v>14805</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -4793,28 +5268,31 @@
       <c r="I147">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="2">
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
         <v>45755</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <v>45754</v>
       </c>
       <c r="C148">
         <v>14492</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -4822,28 +5300,31 @@
       <c r="I148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="2">
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
         <v>45755</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <v>45754</v>
       </c>
       <c r="C149">
         <v>14492</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>14</v>
@@ -4851,28 +5332,31 @@
       <c r="I149">
         <v>103</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="2">
+      <c r="J149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
         <v>45755</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <v>45754</v>
       </c>
       <c r="C150">
         <v>14492</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>9</v>
@@ -4880,28 +5364,31 @@
       <c r="I150">
         <v>123</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="2">
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
         <v>45755</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>45756</v>
       </c>
       <c r="C151">
         <v>14492</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E151" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -4909,28 +5396,31 @@
       <c r="I151">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="2">
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
         <v>45755</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <v>45754</v>
       </c>
       <c r="C152">
         <v>14609</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -4938,28 +5428,31 @@
       <c r="I152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="2">
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
         <v>45755</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <v>45754</v>
       </c>
       <c r="C153">
         <v>14609</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>14</v>
@@ -4967,28 +5460,31 @@
       <c r="I153">
         <v>103</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="2">
+      <c r="J153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
         <v>45755</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <v>45754</v>
       </c>
       <c r="C154">
         <v>14609</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>9</v>
@@ -4996,28 +5492,31 @@
       <c r="I154">
         <v>123</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="2">
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
         <v>45755</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <v>45756</v>
       </c>
       <c r="C155">
         <v>14609</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -5025,28 +5524,31 @@
       <c r="I155">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="2">
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
         <v>45755</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>45754</v>
       </c>
       <c r="C156">
         <v>14669</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -5054,28 +5556,31 @@
       <c r="I156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="2">
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
         <v>45755</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <v>45754</v>
       </c>
       <c r="C157">
         <v>14669</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>12</v>
@@ -5083,28 +5588,31 @@
       <c r="I157">
         <v>118</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="2">
+      <c r="J157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
         <v>45755</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <v>45754</v>
       </c>
       <c r="C158">
         <v>14669</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>8</v>
@@ -5112,28 +5620,31 @@
       <c r="I158">
         <v>102</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="2">
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
         <v>45755</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>45754</v>
       </c>
       <c r="C159">
         <v>14669</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H159">
         <v>11</v>
@@ -5141,28 +5652,31 @@
       <c r="I159">
         <v>77</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="2">
+      <c r="J159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
         <v>45755</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>45755</v>
       </c>
       <c r="C160">
         <v>14669</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -5170,28 +5684,31 @@
       <c r="I160">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="2">
+      <c r="J160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
         <v>45755</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="3">
         <v>45756</v>
       </c>
       <c r="C161">
         <v>14669</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -5199,28 +5716,31 @@
       <c r="I161">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="2">
+      <c r="J161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
         <v>45755</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>45754</v>
       </c>
       <c r="C162">
         <v>14826</v>
       </c>
       <c r="D162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -5228,28 +5748,31 @@
       <c r="I162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="2">
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
         <v>45755</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <v>45754</v>
       </c>
       <c r="C163">
         <v>14826</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>12</v>
@@ -5257,28 +5780,31 @@
       <c r="I163">
         <v>68</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="2">
+      <c r="J163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
         <v>45755</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <v>45754</v>
       </c>
       <c r="C164">
         <v>14826</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>8</v>
@@ -5286,28 +5812,31 @@
       <c r="I164">
         <v>99</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="2">
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
         <v>45755</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <v>45754</v>
       </c>
       <c r="C165">
         <v>14826</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H165">
         <v>9</v>
@@ -5315,28 +5844,31 @@
       <c r="I165">
         <v>34</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="2">
+      <c r="J165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
         <v>45755</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="3">
         <v>45756</v>
       </c>
       <c r="C166">
         <v>14826</v>
       </c>
       <c r="D166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -5344,28 +5876,31 @@
       <c r="I166">
         <v>24</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="2">
+      <c r="J166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
         <v>45755</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="3">
         <v>45754</v>
       </c>
       <c r="C167">
         <v>14831</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -5373,28 +5908,31 @@
       <c r="I167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="2">
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
         <v>45755</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="3">
         <v>45754</v>
       </c>
       <c r="C168">
         <v>14831</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>12</v>
@@ -5402,28 +5940,31 @@
       <c r="I168">
         <v>148</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="2">
+      <c r="J168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
         <v>45755</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="3">
         <v>45754</v>
       </c>
       <c r="C169">
         <v>14831</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E169" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H169">
         <v>8</v>
@@ -5431,28 +5972,31 @@
       <c r="I169">
         <v>71</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="2">
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
         <v>45755</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="3">
         <v>45754</v>
       </c>
       <c r="C170">
         <v>14831</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H170">
         <v>7</v>
@@ -5460,28 +6004,31 @@
       <c r="I170">
         <v>196</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="2">
+      <c r="J170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
         <v>45755</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="3">
         <v>45756</v>
       </c>
       <c r="C171">
         <v>14831</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -5489,28 +6036,31 @@
       <c r="I171">
         <v>24</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="2">
+      <c r="J171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
         <v>45756</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="3">
         <v>45756</v>
       </c>
       <c r="C172">
         <v>14832</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -5518,28 +6068,31 @@
       <c r="I172">
         <v>12</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="2">
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
         <v>45756</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="3">
         <v>45756</v>
       </c>
       <c r="C173">
         <v>14833</v>
       </c>
       <c r="D173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -5547,8 +6100,23 @@
       <c r="I173">
         <v>24</v>
       </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J173" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="14589"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Trái Cây Các Loại"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>